--- a/Excel/镇魂街/新配置表/item.道具.xlsx
+++ b/Excel/镇魂街/新配置表/item.道具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="364">
   <si>
     <t>sheet名</t>
   </si>
@@ -1049,6 +1049,114 @@
   <si>
     <t>int:e&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>常服曹焱兵</t>
+  </si>
+  <si>
+    <t>曹玄亮</t>
+  </si>
+  <si>
+    <t>战斗夏玲</t>
+  </si>
+  <si>
+    <t>项昆仑</t>
+  </si>
+  <si>
+    <t>刘羽禅</t>
+  </si>
+  <si>
+    <t>红莲·缇娜</t>
+  </si>
+  <si>
+    <t>战斗曹焱兵</t>
+  </si>
+  <si>
+    <t>黑尔·坎普</t>
+  </si>
+  <si>
+    <t>北落师门</t>
+  </si>
+  <si>
+    <t>盖文</t>
+  </si>
+  <si>
+    <t>阎风吒</t>
+  </si>
+  <si>
+    <t>南御夫</t>
+  </si>
+  <si>
+    <t>吉拉</t>
+  </si>
+  <si>
+    <t>吕仙宫</t>
+  </si>
+  <si>
+    <t>阎巧巧</t>
+  </si>
+  <si>
+    <t>关羽</t>
+  </si>
+  <si>
+    <t>许褚</t>
+  </si>
+  <si>
+    <t>典韦</t>
+  </si>
+  <si>
+    <t>唐流雨</t>
+  </si>
+  <si>
+    <t>李轩辕</t>
+  </si>
+  <si>
+    <t>项羽</t>
+  </si>
+  <si>
+    <t>天使缇娜</t>
+  </si>
+  <si>
+    <t>夏侯渊</t>
+  </si>
+  <si>
+    <t>徐晃</t>
+  </si>
+  <si>
+    <t>张郃</t>
+  </si>
+  <si>
+    <t>张飞</t>
+  </si>
+  <si>
+    <t>夏侯惇</t>
+  </si>
+  <si>
+    <t>塞伯罗斯</t>
+  </si>
+  <si>
+    <t>石灵明</t>
+  </si>
+  <si>
+    <t>于禁</t>
+  </si>
+  <si>
+    <t>西方龙</t>
+  </si>
+  <si>
+    <t>飞廉</t>
+  </si>
+  <si>
+    <t>噬日</t>
+  </si>
+  <si>
+    <t>食火蜥</t>
+  </si>
+  <si>
+    <t>高顺</t>
+  </si>
+  <si>
+    <t>烈风螳螂</t>
   </si>
 </sst>
 </file>
@@ -1560,7 +1668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -1670,16 +1778,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R136"/>
+  <dimension ref="A1:R172"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="23.375" customWidth="1"/>
     <col min="6" max="6" width="9.875" customWidth="1"/>
@@ -1868,1939 +1976,1027 @@
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>1401001</v>
+        <v>1101001</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>45</v>
+        <v>328</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="3">
-        <v>14</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N4" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
-      <c r="R4" s="3">
-        <v>1001</v>
-      </c>
+      <c r="R4" s="3"/>
     </row>
     <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>1401002</v>
+        <v>1101002</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>47</v>
+        <v>329</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="3">
-        <v>14</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N5" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="3">
-        <v>1001</v>
-      </c>
+      <c r="R5" s="3"/>
     </row>
     <row r="6" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="3">
-        <v>1401003</v>
+        <v>1101003</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>49</v>
+        <v>330</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="3">
-        <v>14</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N6" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="3">
-        <v>1001</v>
-      </c>
+      <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="3">
-        <v>1401004</v>
+        <v>1101004</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>51</v>
+        <v>331</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="3">
-        <v>14</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N7" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="3">
-        <v>1001</v>
-      </c>
+      <c r="R7" s="3"/>
     </row>
     <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="3">
-        <v>1401005</v>
+        <v>1101005</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>53</v>
+        <v>332</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="3">
-        <v>14</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N8" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="3">
-        <v>1001</v>
-      </c>
+      <c r="R8" s="3"/>
     </row>
     <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="3">
-        <v>1401006</v>
+        <v>1101006</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>55</v>
+        <v>333</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="3">
-        <v>14</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N9" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
       <c r="O9" s="3"/>
-      <c r="P9" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="3">
-        <v>1001</v>
-      </c>
+      <c r="R9" s="3"/>
     </row>
     <row r="10" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="3">
-        <v>1401007</v>
+        <v>1101007</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>57</v>
+        <v>334</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="3">
-        <v>14</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N10" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
       <c r="O10" s="3"/>
-      <c r="P10" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="3">
-        <v>1001</v>
-      </c>
+      <c r="R10" s="3"/>
     </row>
     <row r="11" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="3">
-        <v>1401008</v>
+        <v>1101008</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>59</v>
+        <v>335</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="3">
-        <v>14</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="3">
-        <v>0</v>
-      </c>
-      <c r="K11" s="3">
-        <v>0</v>
-      </c>
-      <c r="L11" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M11" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N11" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="3">
-        <v>1001</v>
-      </c>
+      <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="3">
-        <v>1401009</v>
+        <v>1101009</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>61</v>
+        <v>336</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="3">
-        <v>14</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N12" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
-      <c r="R12" s="3">
-        <v>1001</v>
-      </c>
+      <c r="R12" s="3"/>
     </row>
     <row r="13" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="3">
-        <v>1401010</v>
+        <v>1101010</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>63</v>
+        <v>337</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="3">
-        <v>14</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N13" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-      <c r="R13" s="3">
-        <v>1001</v>
-      </c>
+      <c r="R13" s="3"/>
     </row>
     <row r="14" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="3">
-        <v>1601001</v>
+        <v>1101011</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>65</v>
+        <v>338</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="3">
-        <v>16</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="3">
-        <v>999</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N14" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
       <c r="O14" s="3"/>
-      <c r="P14" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
-      <c r="R14" s="3">
-        <v>1001</v>
-      </c>
+      <c r="R14" s="3"/>
     </row>
     <row r="15" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="3">
-        <v>1602001</v>
+        <v>1101012</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>67</v>
+        <v>339</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="3">
-        <v>16</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="3">
-        <v>999</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N15" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="3">
-        <v>1001</v>
-      </c>
+      <c r="R15" s="3"/>
     </row>
     <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="3">
-        <v>1603001</v>
+        <v>1101013</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>69</v>
+        <v>340</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="3">
-        <v>16</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" s="3">
-        <v>999</v>
-      </c>
-      <c r="K16" s="3">
-        <v>0</v>
-      </c>
-      <c r="L16" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M16" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N16" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O16" s="3">
-        <v>1</v>
-      </c>
-      <c r="P16" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-      <c r="R16" s="3">
-        <v>1001</v>
-      </c>
+      <c r="R16" s="3"/>
     </row>
     <row r="17" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="3">
-        <v>1603002</v>
+        <v>1101014</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>71</v>
+        <v>341</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F17" s="3">
-        <v>16</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J17" s="3">
-        <v>999</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N17" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O17" s="3">
-        <v>1</v>
-      </c>
-      <c r="P17" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="3">
-        <v>1001</v>
-      </c>
+      <c r="R17" s="3"/>
     </row>
     <row r="18" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="3">
-        <v>1603003</v>
+        <v>1101015</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>73</v>
+        <v>342</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="3">
-        <v>16</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="3">
-        <v>999</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M18" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N18" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O18" s="3">
-        <v>1</v>
-      </c>
-      <c r="P18" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
-      <c r="R18" s="3">
-        <v>1001</v>
-      </c>
+      <c r="R18" s="3"/>
     </row>
     <row r="19" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="3">
-        <v>1603004</v>
+        <v>1102001</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>75</v>
+        <v>343</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="3">
-        <v>16</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="3">
-        <v>999</v>
-      </c>
-      <c r="K19" s="3">
-        <v>0</v>
-      </c>
-      <c r="L19" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M19" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N19" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O19" s="3">
-        <v>1</v>
-      </c>
-      <c r="P19" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-      <c r="R19" s="3">
-        <v>1001</v>
-      </c>
+      <c r="R19" s="3"/>
     </row>
     <row r="20" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="3">
-        <v>1603005</v>
+        <v>1102002</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>77</v>
+        <v>344</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="3">
-        <v>16</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" s="3">
-        <v>999</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M20" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N20" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O20" s="3">
-        <v>1</v>
-      </c>
-      <c r="P20" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
-      <c r="R20" s="3">
-        <v>1001</v>
-      </c>
+      <c r="R20" s="3"/>
     </row>
     <row r="21" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="3">
-        <v>1603006</v>
+        <v>1102003</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="3">
-        <v>16</v>
-      </c>
-      <c r="G21" s="3">
-        <v>1</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="3">
-        <v>999</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M21" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N21" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O21" s="3">
-        <v>1</v>
-      </c>
-      <c r="P21" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
-      <c r="R21" s="3">
-        <v>1001</v>
-      </c>
+      <c r="R21" s="3"/>
     </row>
     <row r="22" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="3">
-        <v>1603007</v>
+        <v>1102004</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>81</v>
+        <v>346</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F22" s="3">
-        <v>16</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" s="3">
-        <v>999</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M22" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N22" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O22" s="3">
-        <v>1</v>
-      </c>
-      <c r="P22" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
-      <c r="R22" s="3">
-        <v>1001</v>
-      </c>
+      <c r="R22" s="3"/>
     </row>
     <row r="23" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="3">
-        <v>1603008</v>
+        <v>1102005</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>83</v>
+        <v>347</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" s="3">
-        <v>16</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23" s="3">
-        <v>999</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M23" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N23" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O23" s="3">
-        <v>1</v>
-      </c>
-      <c r="P23" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
-      <c r="R23" s="3">
-        <v>1001</v>
-      </c>
+      <c r="R23" s="3"/>
     </row>
     <row r="24" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="3">
-        <v>1603009</v>
+        <v>1102006</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>85</v>
+        <v>348</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" s="3">
-        <v>16</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" s="3">
-        <v>999</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M24" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N24" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O24" s="3">
-        <v>1</v>
-      </c>
-      <c r="P24" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
-      <c r="R24" s="3">
-        <v>1001</v>
-      </c>
+      <c r="R24" s="3"/>
     </row>
     <row r="25" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="3">
-        <v>1603010</v>
+        <v>1102007</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>87</v>
+        <v>349</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" s="3">
-        <v>16</v>
-      </c>
-      <c r="G25" s="3">
-        <v>1</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J25" s="3">
-        <v>999</v>
-      </c>
-      <c r="K25" s="3">
-        <v>0</v>
-      </c>
-      <c r="L25" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M25" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N25" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O25" s="3">
-        <v>1</v>
-      </c>
-      <c r="P25" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
-      <c r="R25" s="3">
-        <v>1001</v>
-      </c>
+      <c r="R25" s="3"/>
     </row>
     <row r="26" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="3">
-        <v>1603011</v>
+        <v>1102008</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>89</v>
+        <v>350</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26" s="3">
-        <v>16</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J26" s="3">
-        <v>999</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M26" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N26" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O26" s="3">
-        <v>1</v>
-      </c>
-      <c r="P26" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
-      <c r="R26" s="3">
-        <v>1001</v>
-      </c>
+      <c r="R26" s="3"/>
     </row>
     <row r="27" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="3">
-        <v>1603012</v>
+        <v>1102009</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>91</v>
+        <v>351</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" s="3">
-        <v>16</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J27" s="3">
-        <v>999</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M27" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N27" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O27" s="3">
-        <v>1</v>
-      </c>
-      <c r="P27" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
-      <c r="R27" s="3">
-        <v>1001</v>
-      </c>
+      <c r="R27" s="3"/>
     </row>
     <row r="28" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="3">
-        <v>1603013</v>
+        <v>1102010</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>93</v>
+        <v>352</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F28" s="3">
-        <v>16</v>
-      </c>
-      <c r="G28" s="3">
-        <v>1</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J28" s="3">
-        <v>999</v>
-      </c>
-      <c r="K28" s="3">
-        <v>0</v>
-      </c>
-      <c r="L28" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M28" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N28" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O28" s="3">
-        <v>1</v>
-      </c>
-      <c r="P28" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
-      <c r="R28" s="3">
-        <v>1001</v>
-      </c>
+      <c r="R28" s="3"/>
     </row>
     <row r="29" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>26</v>
       </c>
       <c r="B29" s="3">
-        <v>1603014</v>
+        <v>1102011</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>95</v>
+        <v>353</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F29" s="3">
-        <v>16</v>
-      </c>
-      <c r="G29" s="3">
-        <v>1</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J29" s="3">
-        <v>999</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M29" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N29" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O29" s="3">
-        <v>1</v>
-      </c>
-      <c r="P29" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
-      <c r="R29" s="3">
-        <v>1001</v>
-      </c>
+      <c r="R29" s="3"/>
     </row>
     <row r="30" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>27</v>
       </c>
       <c r="B30" s="3">
-        <v>1603015</v>
+        <v>1102012</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>97</v>
+        <v>354</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" s="3">
-        <v>16</v>
-      </c>
-      <c r="G30" s="3">
-        <v>1</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J30" s="3">
-        <v>999</v>
-      </c>
-      <c r="K30" s="3">
-        <v>0</v>
-      </c>
-      <c r="L30" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M30" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N30" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O30" s="3">
-        <v>1</v>
-      </c>
-      <c r="P30" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
-      <c r="R30" s="3">
-        <v>1001</v>
-      </c>
+      <c r="R30" s="3"/>
     </row>
     <row r="31" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>28</v>
       </c>
       <c r="B31" s="3">
-        <v>1603016</v>
+        <v>1102013</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>99</v>
+        <v>355</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F31" s="3">
-        <v>16</v>
-      </c>
-      <c r="G31" s="3">
-        <v>1</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J31" s="3">
-        <v>999</v>
-      </c>
-      <c r="K31" s="3">
-        <v>0</v>
-      </c>
-      <c r="L31" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M31" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N31" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O31" s="3">
-        <v>1</v>
-      </c>
-      <c r="P31" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
-      <c r="R31" s="3">
-        <v>1001</v>
-      </c>
+      <c r="R31" s="3"/>
     </row>
     <row r="32" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>29</v>
       </c>
       <c r="B32" s="3">
-        <v>1603017</v>
+        <v>1102014</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>101</v>
+        <v>356</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F32" s="3">
-        <v>16</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J32" s="3">
-        <v>999</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M32" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N32" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O32" s="3">
-        <v>1</v>
-      </c>
-      <c r="P32" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
-      <c r="R32" s="3">
-        <v>1001</v>
-      </c>
+      <c r="R32" s="3"/>
     </row>
     <row r="33" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>30</v>
       </c>
       <c r="B33" s="3">
-        <v>1603018</v>
+        <v>1102015</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>103</v>
+        <v>357</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F33" s="3">
-        <v>16</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J33" s="3">
-        <v>999</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M33" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N33" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O33" s="3">
-        <v>1</v>
-      </c>
-      <c r="P33" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
-      <c r="R33" s="3">
-        <v>1001</v>
-      </c>
+      <c r="R33" s="3"/>
     </row>
     <row r="34" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>31</v>
       </c>
       <c r="B34" s="3">
-        <v>1603019</v>
+        <v>1102016</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>105</v>
+        <v>358</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F34" s="3">
-        <v>16</v>
-      </c>
-      <c r="G34" s="3">
-        <v>1</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J34" s="3">
-        <v>999</v>
-      </c>
-      <c r="K34" s="3">
-        <v>0</v>
-      </c>
-      <c r="L34" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M34" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N34" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O34" s="3">
-        <v>1</v>
-      </c>
-      <c r="P34" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
-      <c r="R34" s="3">
-        <v>1001</v>
-      </c>
+      <c r="R34" s="3"/>
     </row>
     <row r="35" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>32</v>
       </c>
       <c r="B35" s="3">
-        <v>1603020</v>
+        <v>1102017</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>107</v>
+        <v>359</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F35" s="3">
-        <v>16</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J35" s="3">
-        <v>999</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M35" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N35" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O35" s="3">
-        <v>1</v>
-      </c>
-      <c r="P35" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
-      <c r="R35" s="3">
-        <v>1001</v>
-      </c>
+      <c r="R35" s="3"/>
     </row>
     <row r="36" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>33</v>
       </c>
       <c r="B36" s="3">
-        <v>1603021</v>
+        <v>1102018</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>109</v>
+        <v>360</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F36" s="3">
-        <v>16</v>
-      </c>
-      <c r="G36" s="3">
-        <v>1</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J36" s="3">
-        <v>999</v>
-      </c>
-      <c r="K36" s="3">
-        <v>0</v>
-      </c>
-      <c r="L36" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M36" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N36" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O36" s="3">
-        <v>1</v>
-      </c>
-      <c r="P36" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
-      <c r="R36" s="3">
-        <v>1001</v>
-      </c>
+      <c r="R36" s="3"/>
     </row>
     <row r="37" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>34</v>
       </c>
       <c r="B37" s="3">
-        <v>1603022</v>
+        <v>1102019</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>111</v>
+        <v>361</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F37" s="3">
-        <v>16</v>
-      </c>
-      <c r="G37" s="3">
-        <v>1</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J37" s="3">
-        <v>999</v>
-      </c>
-      <c r="K37" s="3">
-        <v>0</v>
-      </c>
-      <c r="L37" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M37" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N37" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O37" s="3">
-        <v>1</v>
-      </c>
-      <c r="P37" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
-      <c r="R37" s="3">
-        <v>1001</v>
-      </c>
+      <c r="R37" s="3"/>
     </row>
     <row r="38" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>35</v>
       </c>
       <c r="B38" s="3">
-        <v>1604001</v>
+        <v>1102020</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>113</v>
+        <v>362</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F38" s="3">
-        <v>16</v>
-      </c>
-      <c r="G38" s="3">
-        <v>1</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J38" s="3">
-        <v>999</v>
-      </c>
-      <c r="K38" s="3">
-        <v>0</v>
-      </c>
-      <c r="L38" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M38" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N38" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O38" s="3">
-        <v>1</v>
-      </c>
-      <c r="P38" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
-      <c r="R38" s="3">
-        <v>1001</v>
-      </c>
+      <c r="R38" s="3"/>
     </row>
     <row r="39" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>36</v>
       </c>
       <c r="B39" s="3">
-        <v>1604002</v>
+        <v>1102021</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>115</v>
+        <v>363</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F39" s="3">
-        <v>16</v>
-      </c>
-      <c r="G39" s="3">
-        <v>1</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J39" s="3">
-        <v>999</v>
-      </c>
-      <c r="K39" s="3">
-        <v>0</v>
-      </c>
-      <c r="L39" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="M39" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N39" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O39" s="3">
-        <v>1</v>
-      </c>
-      <c r="P39" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-      <c r="R39" s="3">
-        <v>1001</v>
-      </c>
+      <c r="R39" s="3"/>
     </row>
     <row r="40" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="B40" s="3">
-        <v>1606001</v>
+        <v>1401001</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="F40" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G40" s="3">
         <v>1</v>
@@ -3812,23 +3008,21 @@
         <v>32</v>
       </c>
       <c r="J40" s="3">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="K40" s="3">
         <v>0</v>
       </c>
       <c r="L40" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" s="3">
         <v>1001</v>
       </c>
       <c r="N40" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O40" s="3">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O40" s="3"/>
       <c r="P40" s="3" t="b">
         <v>0</v>
       </c>
@@ -3839,22 +3033,22 @@
     </row>
     <row r="41" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="B41" s="3">
-        <v>1606002</v>
+        <v>1401002</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>120</v>
+        <v>48</v>
       </c>
       <c r="F41" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G41" s="3">
         <v>1</v>
@@ -3866,23 +3060,21 @@
         <v>32</v>
       </c>
       <c r="J41" s="3">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
         <v>1001</v>
       </c>
       <c r="N41" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O41" s="3">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O41" s="3"/>
       <c r="P41" s="3" t="b">
         <v>0</v>
       </c>
@@ -3893,22 +3085,22 @@
     </row>
     <row r="42" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="B42" s="3">
-        <v>1606003</v>
+        <v>1401003</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="F42" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G42" s="3">
         <v>1</v>
@@ -3920,23 +3112,21 @@
         <v>32</v>
       </c>
       <c r="J42" s="3">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
       <c r="L42" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" s="3">
         <v>1001</v>
       </c>
       <c r="N42" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O42" s="3">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
       <c r="P42" s="3" t="b">
         <v>0</v>
       </c>
@@ -3947,22 +3137,22 @@
     </row>
     <row r="43" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="B43" s="3">
-        <v>1606004</v>
+        <v>1401004</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>123</v>
+        <v>51</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="F43" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G43" s="3">
         <v>1</v>
@@ -3974,23 +3164,21 @@
         <v>32</v>
       </c>
       <c r="J43" s="3">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
       <c r="L43" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
         <v>1001</v>
       </c>
       <c r="N43" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O43" s="3">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O43" s="3"/>
       <c r="P43" s="3" t="b">
         <v>0</v>
       </c>
@@ -4001,22 +3189,22 @@
     </row>
     <row r="44" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B44" s="3">
-        <v>1606005</v>
+        <v>1401005</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="F44" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G44" s="3">
         <v>1</v>
@@ -4028,23 +3216,21 @@
         <v>32</v>
       </c>
       <c r="J44" s="3">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
       <c r="L44" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44" s="3">
         <v>1001</v>
       </c>
       <c r="N44" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O44" s="3">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
       <c r="P44" s="3" t="b">
         <v>0</v>
       </c>
@@ -4055,22 +3241,22 @@
     </row>
     <row r="45" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B45" s="3">
-        <v>1606006</v>
+        <v>1401006</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="F45" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G45" s="3">
         <v>1</v>
@@ -4082,23 +3268,21 @@
         <v>32</v>
       </c>
       <c r="J45" s="3">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
       <c r="L45" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>1001</v>
       </c>
       <c r="N45" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O45" s="3">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O45" s="3"/>
       <c r="P45" s="3" t="b">
         <v>0</v>
       </c>
@@ -4109,22 +3293,22 @@
     </row>
     <row r="46" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="B46" s="3">
-        <v>1606007</v>
+        <v>1401007</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="F46" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G46" s="3">
         <v>1</v>
@@ -4136,23 +3320,21 @@
         <v>32</v>
       </c>
       <c r="J46" s="3">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
       <c r="L46" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46" s="3">
         <v>1001</v>
       </c>
       <c r="N46" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O46" s="3">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O46" s="3"/>
       <c r="P46" s="3" t="b">
         <v>0</v>
       </c>
@@ -4163,22 +3345,22 @@
     </row>
     <row r="47" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="B47" s="3">
-        <v>1606008</v>
+        <v>1401008</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>132</v>
+        <v>60</v>
       </c>
       <c r="F47" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G47" s="3">
         <v>1</v>
@@ -4190,23 +3372,21 @@
         <v>32</v>
       </c>
       <c r="J47" s="3">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
       <c r="L47" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47" s="3">
         <v>1001</v>
       </c>
       <c r="N47" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O47" s="3">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O47" s="3"/>
       <c r="P47" s="3" t="b">
         <v>0</v>
       </c>
@@ -4217,22 +3397,22 @@
     </row>
     <row r="48" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="B48" s="3">
-        <v>1606009</v>
+        <v>1401009</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c r="F48" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G48" s="3">
         <v>1</v>
@@ -4244,23 +3424,21 @@
         <v>32</v>
       </c>
       <c r="J48" s="3">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
       <c r="L48" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48" s="3">
         <v>1001</v>
       </c>
       <c r="N48" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O48" s="3">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O48" s="3"/>
       <c r="P48" s="3" t="b">
         <v>0</v>
       </c>
@@ -4271,22 +3449,22 @@
     </row>
     <row r="49" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="B49" s="3">
-        <v>1606010</v>
+        <v>1401010</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="F49" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G49" s="3">
         <v>1</v>
@@ -4298,23 +3476,21 @@
         <v>32</v>
       </c>
       <c r="J49" s="3">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
       <c r="L49" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49" s="3">
         <v>1001</v>
       </c>
       <c r="N49" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O49" s="3">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O49" s="3"/>
       <c r="P49" s="3" t="b">
         <v>0</v>
       </c>
@@ -4325,19 +3501,19 @@
     </row>
     <row r="50" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B50" s="3">
-        <v>1606011</v>
+        <v>1601001</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>137</v>
+        <v>65</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>137</v>
+        <v>65</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="F50" s="3">
         <v>16</v>
@@ -4358,17 +3534,15 @@
         <v>0</v>
       </c>
       <c r="L50" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50" s="3">
         <v>1001</v>
       </c>
       <c r="N50" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O50" s="3">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
       <c r="P50" s="3" t="b">
         <v>0</v>
       </c>
@@ -4379,19 +3553,19 @@
     </row>
     <row r="51" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="B51" s="3">
-        <v>1606012</v>
+        <v>1602001</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="F51" s="3">
         <v>16</v>
@@ -4412,17 +3586,15 @@
         <v>0</v>
       </c>
       <c r="L51" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" s="3">
         <v>1001</v>
       </c>
       <c r="N51" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O51" s="3">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
       <c r="P51" s="3" t="b">
         <v>0</v>
       </c>
@@ -4433,19 +3605,19 @@
     </row>
     <row r="52" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B52" s="3">
-        <v>1606013</v>
+        <v>1603001</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>142</v>
+        <v>70</v>
       </c>
       <c r="F52" s="3">
         <v>16</v>
@@ -4487,19 +3659,19 @@
     </row>
     <row r="53" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B53" s="3">
-        <v>1606014</v>
+        <v>1603002</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="F53" s="3">
         <v>16</v>
@@ -4541,19 +3713,19 @@
     </row>
     <row r="54" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="B54" s="3">
-        <v>1606015</v>
+        <v>1603003</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>145</v>
+        <v>73</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>146</v>
+        <v>74</v>
       </c>
       <c r="F54" s="3">
         <v>16</v>
@@ -4595,19 +3767,19 @@
     </row>
     <row r="55" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B55" s="3">
-        <v>1606016</v>
+        <v>1603004</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="F55" s="3">
         <v>16</v>
@@ -4649,19 +3821,19 @@
     </row>
     <row r="56" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B56" s="3">
-        <v>1606017</v>
+        <v>1603005</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="F56" s="3">
         <v>16</v>
@@ -4703,19 +3875,19 @@
     </row>
     <row r="57" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B57" s="3">
-        <v>1606018</v>
+        <v>1603006</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="F57" s="3">
         <v>16</v>
@@ -4757,19 +3929,19 @@
     </row>
     <row r="58" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B58" s="3">
-        <v>1606019</v>
+        <v>1603007</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="F58" s="3">
         <v>16</v>
@@ -4811,19 +3983,19 @@
     </row>
     <row r="59" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B59" s="3">
-        <v>1606020</v>
+        <v>1603008</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="F59" s="3">
         <v>16</v>
@@ -4865,19 +4037,19 @@
     </row>
     <row r="60" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="B60" s="3">
-        <v>1606021</v>
+        <v>1603009</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
       <c r="F60" s="3">
         <v>16</v>
@@ -4919,19 +4091,19 @@
     </row>
     <row r="61" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="B61" s="3">
-        <v>1606022</v>
+        <v>1603010</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>159</v>
+        <v>87</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>159</v>
+        <v>87</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>160</v>
+        <v>88</v>
       </c>
       <c r="F61" s="3">
         <v>16</v>
@@ -4973,19 +4145,19 @@
     </row>
     <row r="62" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="B62" s="3">
-        <v>1606023</v>
+        <v>1603011</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>162</v>
+        <v>90</v>
       </c>
       <c r="F62" s="3">
         <v>16</v>
@@ -5027,19 +4199,19 @@
     </row>
     <row r="63" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="B63" s="3">
-        <v>1606024</v>
+        <v>1603012</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>164</v>
+        <v>92</v>
       </c>
       <c r="F63" s="3">
         <v>16</v>
@@ -5081,19 +4253,19 @@
     </row>
     <row r="64" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="B64" s="3">
-        <v>1606025</v>
+        <v>1603013</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>165</v>
+        <v>93</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>165</v>
+        <v>93</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="F64" s="3">
         <v>16</v>
@@ -5135,19 +4307,19 @@
     </row>
     <row r="65" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="B65" s="3">
-        <v>1606026</v>
+        <v>1603014</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>168</v>
+        <v>96</v>
       </c>
       <c r="F65" s="3">
         <v>16</v>
@@ -5189,19 +4361,19 @@
     </row>
     <row r="66" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="B66" s="3">
-        <v>1606027</v>
+        <v>1603015</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>169</v>
+        <v>97</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>169</v>
+        <v>97</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>170</v>
+        <v>98</v>
       </c>
       <c r="F66" s="3">
         <v>16</v>
@@ -5243,19 +4415,19 @@
     </row>
     <row r="67" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="B67" s="3">
-        <v>1606028</v>
+        <v>1603016</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>171</v>
+        <v>99</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>171</v>
+        <v>99</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="F67" s="3">
         <v>16</v>
@@ -5297,19 +4469,19 @@
     </row>
     <row r="68" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="B68" s="3">
-        <v>1606029</v>
+        <v>1603017</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>174</v>
+        <v>102</v>
       </c>
       <c r="F68" s="3">
         <v>16</v>
@@ -5351,19 +4523,19 @@
     </row>
     <row r="69" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="B69" s="3">
-        <v>1606030</v>
+        <v>1603018</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>175</v>
+        <v>103</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>175</v>
+        <v>103</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="F69" s="3">
         <v>16</v>
@@ -5405,19 +4577,19 @@
     </row>
     <row r="70" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="B70" s="3">
-        <v>1606031</v>
+        <v>1603019</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>177</v>
+        <v>105</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="F70" s="3">
         <v>16</v>
@@ -5459,19 +4631,19 @@
     </row>
     <row r="71" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="B71" s="3">
-        <v>1606032</v>
+        <v>1603020</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="F71" s="3">
         <v>16</v>
@@ -5513,19 +4685,19 @@
     </row>
     <row r="72" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="B72" s="3">
-        <v>1607001</v>
+        <v>1603021</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>181</v>
+        <v>109</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>181</v>
+        <v>109</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>182</v>
+        <v>110</v>
       </c>
       <c r="F72" s="3">
         <v>16</v>
@@ -5567,19 +4739,19 @@
     </row>
     <row r="73" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="B73" s="3">
-        <v>1607002</v>
+        <v>1603022</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>183</v>
+        <v>111</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>183</v>
+        <v>111</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>184</v>
+        <v>112</v>
       </c>
       <c r="F73" s="3">
         <v>16</v>
@@ -5621,19 +4793,19 @@
     </row>
     <row r="74" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="B74" s="3">
-        <v>1607003</v>
+        <v>1604001</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>185</v>
+        <v>113</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>185</v>
+        <v>113</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>186</v>
+        <v>114</v>
       </c>
       <c r="F74" s="3">
         <v>16</v>
@@ -5675,19 +4847,19 @@
     </row>
     <row r="75" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="B75" s="3">
-        <v>1607004</v>
+        <v>1604002</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>187</v>
+        <v>115</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>187</v>
+        <v>115</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>188</v>
+        <v>116</v>
       </c>
       <c r="F75" s="3">
         <v>16</v>
@@ -5729,19 +4901,19 @@
     </row>
     <row r="76" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="B76" s="3">
-        <v>1607005</v>
+        <v>1606001</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>189</v>
+        <v>117</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>190</v>
+        <v>118</v>
       </c>
       <c r="F76" s="3">
         <v>16</v>
@@ -5783,19 +4955,19 @@
     </row>
     <row r="77" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="B77" s="3">
-        <v>1607006</v>
+        <v>1606002</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>191</v>
+        <v>119</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>191</v>
+        <v>119</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>192</v>
+        <v>120</v>
       </c>
       <c r="F77" s="3">
         <v>16</v>
@@ -5837,19 +5009,19 @@
     </row>
     <row r="78" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="B78" s="3">
-        <v>1607007</v>
+        <v>1606003</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>193</v>
+        <v>121</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>193</v>
+        <v>121</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>194</v>
+        <v>122</v>
       </c>
       <c r="F78" s="3">
         <v>16</v>
@@ -5891,19 +5063,19 @@
     </row>
     <row r="79" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="B79" s="3">
-        <v>1607008</v>
+        <v>1606004</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>195</v>
+        <v>123</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>195</v>
+        <v>123</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>196</v>
+        <v>124</v>
       </c>
       <c r="F79" s="3">
         <v>16</v>
@@ -5945,19 +5117,19 @@
     </row>
     <row r="80" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="B80" s="3">
-        <v>1607009</v>
+        <v>1606005</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>197</v>
+        <v>125</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>197</v>
+        <v>125</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>198</v>
+        <v>126</v>
       </c>
       <c r="F80" s="3">
         <v>16</v>
@@ -5999,19 +5171,19 @@
     </row>
     <row r="81" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="B81" s="3">
-        <v>1608001</v>
+        <v>1606006</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>199</v>
+        <v>127</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>199</v>
+        <v>127</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="F81" s="3">
         <v>16</v>
@@ -6053,19 +5225,19 @@
     </row>
     <row r="82" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="B82" s="3">
-        <v>1608002</v>
+        <v>1606007</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>201</v>
+        <v>129</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>201</v>
+        <v>129</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>202</v>
+        <v>130</v>
       </c>
       <c r="F82" s="3">
         <v>16</v>
@@ -6107,19 +5279,19 @@
     </row>
     <row r="83" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="B83" s="3">
-        <v>1608003</v>
+        <v>1606008</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>203</v>
+        <v>131</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>203</v>
+        <v>131</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>204</v>
+        <v>132</v>
       </c>
       <c r="F83" s="3">
         <v>16</v>
@@ -6161,19 +5333,19 @@
     </row>
     <row r="84" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="B84" s="3">
-        <v>1608004</v>
+        <v>1606009</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>205</v>
+        <v>133</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>205</v>
+        <v>133</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>206</v>
+        <v>134</v>
       </c>
       <c r="F84" s="3">
         <v>16</v>
@@ -6215,19 +5387,19 @@
     </row>
     <row r="85" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="B85" s="3">
-        <v>1608005</v>
+        <v>1606010</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>207</v>
+        <v>135</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>207</v>
+        <v>135</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>208</v>
+        <v>136</v>
       </c>
       <c r="F85" s="3">
         <v>16</v>
@@ -6269,19 +5441,19 @@
     </row>
     <row r="86" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="B86" s="3">
-        <v>1608006</v>
+        <v>1606011</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>209</v>
+        <v>137</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>209</v>
+        <v>137</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>210</v>
+        <v>138</v>
       </c>
       <c r="F86" s="3">
         <v>16</v>
@@ -6323,19 +5495,19 @@
     </row>
     <row r="87" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="B87" s="3">
-        <v>1608007</v>
+        <v>1606012</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>211</v>
+        <v>139</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>211</v>
+        <v>139</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>212</v>
+        <v>140</v>
       </c>
       <c r="F87" s="3">
         <v>16</v>
@@ -6377,19 +5549,19 @@
     </row>
     <row r="88" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="B88" s="3">
-        <v>1608008</v>
+        <v>1606013</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>214</v>
+        <v>142</v>
       </c>
       <c r="F88" s="3">
         <v>16</v>
@@ -6431,19 +5603,19 @@
     </row>
     <row r="89" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="B89" s="3">
-        <v>1608009</v>
+        <v>1606014</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>215</v>
+        <v>143</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>215</v>
+        <v>143</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>216</v>
+        <v>144</v>
       </c>
       <c r="F89" s="3">
         <v>16</v>
@@ -6485,19 +5657,19 @@
     </row>
     <row r="90" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="B90" s="3">
-        <v>1608010</v>
+        <v>1606015</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>217</v>
+        <v>145</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>218</v>
+        <v>146</v>
       </c>
       <c r="F90" s="3">
         <v>16</v>
@@ -6539,19 +5711,19 @@
     </row>
     <row r="91" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="B91" s="3">
-        <v>1608011</v>
+        <v>1606016</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>220</v>
+        <v>148</v>
       </c>
       <c r="F91" s="3">
         <v>16</v>
@@ -6593,19 +5765,19 @@
     </row>
     <row r="92" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="B92" s="3">
-        <v>1608012</v>
+        <v>1606017</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>221</v>
+        <v>149</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>221</v>
+        <v>149</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>222</v>
+        <v>150</v>
       </c>
       <c r="F92" s="3">
         <v>16</v>
@@ -6647,19 +5819,19 @@
     </row>
     <row r="93" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="B93" s="3">
-        <v>1608013</v>
+        <v>1606018</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>223</v>
+        <v>151</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>223</v>
+        <v>151</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>224</v>
+        <v>152</v>
       </c>
       <c r="F93" s="3">
         <v>16</v>
@@ -6701,19 +5873,19 @@
     </row>
     <row r="94" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="B94" s="3">
-        <v>1608014</v>
+        <v>1606019</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>225</v>
+        <v>153</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>225</v>
+        <v>153</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>226</v>
+        <v>154</v>
       </c>
       <c r="F94" s="3">
         <v>16</v>
@@ -6755,19 +5927,19 @@
     </row>
     <row r="95" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="B95" s="3">
-        <v>1608015</v>
+        <v>1606020</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>227</v>
+        <v>155</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>227</v>
+        <v>155</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>228</v>
+        <v>156</v>
       </c>
       <c r="F95" s="3">
         <v>16</v>
@@ -6809,19 +5981,19 @@
     </row>
     <row r="96" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="B96" s="3">
-        <v>1609001</v>
+        <v>1606021</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>229</v>
+        <v>157</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>229</v>
+        <v>157</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>230</v>
+        <v>158</v>
       </c>
       <c r="F96" s="3">
         <v>16</v>
@@ -6863,19 +6035,19 @@
     </row>
     <row r="97" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="B97" s="3">
-        <v>1609002</v>
+        <v>1606022</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>231</v>
+        <v>159</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>231</v>
+        <v>159</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>232</v>
+        <v>160</v>
       </c>
       <c r="F97" s="3">
         <v>16</v>
@@ -6917,19 +6089,19 @@
     </row>
     <row r="98" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="B98" s="3">
-        <v>1609003</v>
+        <v>1606023</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>233</v>
+        <v>161</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>234</v>
+        <v>162</v>
       </c>
       <c r="F98" s="3">
         <v>16</v>
@@ -6971,19 +6143,19 @@
     </row>
     <row r="99" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="B99" s="3">
-        <v>1605001</v>
+        <v>1606024</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>235</v>
+        <v>163</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>235</v>
+        <v>163</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>236</v>
+        <v>164</v>
       </c>
       <c r="F99" s="3">
         <v>16</v>
@@ -7013,33 +6185,31 @@
         <v>1</v>
       </c>
       <c r="O99" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P99" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q99" s="3">
-        <v>1001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3"/>
       <c r="R99" s="3">
         <v>1001</v>
       </c>
     </row>
     <row r="100" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="B100" s="3">
-        <v>1605002</v>
+        <v>1606025</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>237</v>
+        <v>165</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>237</v>
+        <v>165</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>238</v>
+        <v>166</v>
       </c>
       <c r="F100" s="3">
         <v>16</v>
@@ -7069,39 +6239,37 @@
         <v>1</v>
       </c>
       <c r="O100" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P100" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>1001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3"/>
       <c r="R100" s="3">
         <v>1001</v>
       </c>
     </row>
     <row r="101" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="B101" s="3">
-        <v>1701001</v>
+        <v>1606026</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>239</v>
+        <v>167</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>239</v>
+        <v>167</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>240</v>
+        <v>168</v>
       </c>
       <c r="F101" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G101" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>31</v>
@@ -7116,7 +6284,7 @@
         <v>0</v>
       </c>
       <c r="L101" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M101" s="3">
         <v>1001</v>
@@ -7125,10 +6293,10 @@
         <v>1</v>
       </c>
       <c r="O101" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P101" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q101" s="3"/>
       <c r="R101" s="3">
@@ -7137,25 +6305,25 @@
     </row>
     <row r="102" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="B102" s="3">
-        <v>1701002</v>
+        <v>1606027</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>241</v>
+        <v>169</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>241</v>
+        <v>169</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>242</v>
+        <v>170</v>
       </c>
       <c r="F102" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G102" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>31</v>
@@ -7170,7 +6338,7 @@
         <v>0</v>
       </c>
       <c r="L102" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M102" s="3">
         <v>1001</v>
@@ -7179,10 +6347,10 @@
         <v>1</v>
       </c>
       <c r="O102" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P102" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="3"/>
       <c r="R102" s="3">
@@ -7191,25 +6359,25 @@
     </row>
     <row r="103" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="B103" s="3">
-        <v>1701003</v>
+        <v>1606028</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>243</v>
+        <v>171</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>243</v>
+        <v>171</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>244</v>
+        <v>172</v>
       </c>
       <c r="F103" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G103" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H103" s="3" t="s">
         <v>31</v>
@@ -7224,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="L103" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M103" s="3">
         <v>1001</v>
@@ -7233,10 +6401,10 @@
         <v>1</v>
       </c>
       <c r="O103" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P103" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q103" s="3"/>
       <c r="R103" s="3">
@@ -7245,25 +6413,25 @@
     </row>
     <row r="104" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="B104" s="3">
-        <v>1701004</v>
+        <v>1606029</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>245</v>
+        <v>173</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>245</v>
+        <v>173</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>246</v>
+        <v>174</v>
       </c>
       <c r="F104" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G104" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>31</v>
@@ -7278,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="L104" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M104" s="3">
         <v>1001</v>
@@ -7287,10 +6455,10 @@
         <v>1</v>
       </c>
       <c r="O104" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P104" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q104" s="3"/>
       <c r="R104" s="3">
@@ -7299,25 +6467,25 @@
     </row>
     <row r="105" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="B105" s="3">
-        <v>1701005</v>
+        <v>1606030</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>247</v>
+        <v>175</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>247</v>
+        <v>175</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>248</v>
+        <v>176</v>
       </c>
       <c r="F105" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G105" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H105" s="3" t="s">
         <v>31</v>
@@ -7332,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="L105" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M105" s="3">
         <v>1001</v>
@@ -7341,10 +6509,10 @@
         <v>1</v>
       </c>
       <c r="O105" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P105" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q105" s="3"/>
       <c r="R105" s="3">
@@ -7353,25 +6521,25 @@
     </row>
     <row r="106" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="B106" s="3">
-        <v>1701006</v>
+        <v>1606031</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>249</v>
+        <v>177</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>249</v>
+        <v>177</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>250</v>
+        <v>178</v>
       </c>
       <c r="F106" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G106" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>31</v>
@@ -7386,7 +6554,7 @@
         <v>0</v>
       </c>
       <c r="L106" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M106" s="3">
         <v>1001</v>
@@ -7395,10 +6563,10 @@
         <v>1</v>
       </c>
       <c r="O106" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P106" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q106" s="3"/>
       <c r="R106" s="3">
@@ -7407,25 +6575,25 @@
     </row>
     <row r="107" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="B107" s="3">
-        <v>1701007</v>
+        <v>1606032</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>251</v>
+        <v>179</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>251</v>
+        <v>179</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>252</v>
+        <v>180</v>
       </c>
       <c r="F107" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G107" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H107" s="3" t="s">
         <v>31</v>
@@ -7440,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="L107" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M107" s="3">
         <v>1001</v>
@@ -7449,10 +6617,10 @@
         <v>1</v>
       </c>
       <c r="O107" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P107" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q107" s="3"/>
       <c r="R107" s="3">
@@ -7461,25 +6629,25 @@
     </row>
     <row r="108" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="B108" s="3">
-        <v>1701008</v>
+        <v>1607001</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>253</v>
+        <v>181</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>253</v>
+        <v>181</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>254</v>
+        <v>182</v>
       </c>
       <c r="F108" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G108" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H108" s="3" t="s">
         <v>31</v>
@@ -7494,7 +6662,7 @@
         <v>0</v>
       </c>
       <c r="L108" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M108" s="3">
         <v>1001</v>
@@ -7503,10 +6671,10 @@
         <v>1</v>
       </c>
       <c r="O108" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P108" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q108" s="3"/>
       <c r="R108" s="3">
@@ -7515,25 +6683,25 @@
     </row>
     <row r="109" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="B109" s="3">
-        <v>1701009</v>
+        <v>1607002</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>255</v>
+        <v>183</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>255</v>
+        <v>183</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>256</v>
+        <v>184</v>
       </c>
       <c r="F109" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G109" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H109" s="3" t="s">
         <v>31</v>
@@ -7548,7 +6716,7 @@
         <v>0</v>
       </c>
       <c r="L109" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M109" s="3">
         <v>1001</v>
@@ -7557,10 +6725,10 @@
         <v>1</v>
       </c>
       <c r="O109" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P109" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q109" s="3"/>
       <c r="R109" s="3">
@@ -7569,25 +6737,25 @@
     </row>
     <row r="110" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="B110" s="3">
-        <v>1701010</v>
+        <v>1607003</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>257</v>
+        <v>185</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>257</v>
+        <v>185</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>258</v>
+        <v>186</v>
       </c>
       <c r="F110" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G110" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H110" s="3" t="s">
         <v>31</v>
@@ -7602,7 +6770,7 @@
         <v>0</v>
       </c>
       <c r="L110" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M110" s="3">
         <v>1001</v>
@@ -7611,10 +6779,10 @@
         <v>1</v>
       </c>
       <c r="O110" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P110" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q110" s="3"/>
       <c r="R110" s="3">
@@ -7623,25 +6791,25 @@
     </row>
     <row r="111" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="B111" s="3">
-        <v>1701011</v>
+        <v>1607004</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>259</v>
+        <v>187</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>259</v>
+        <v>187</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>260</v>
+        <v>188</v>
       </c>
       <c r="F111" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G111" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H111" s="3" t="s">
         <v>31</v>
@@ -7656,7 +6824,7 @@
         <v>0</v>
       </c>
       <c r="L111" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M111" s="3">
         <v>1001</v>
@@ -7665,10 +6833,10 @@
         <v>1</v>
       </c>
       <c r="O111" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P111" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q111" s="3"/>
       <c r="R111" s="3">
@@ -7677,25 +6845,25 @@
     </row>
     <row r="112" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="B112" s="3">
-        <v>1701012</v>
+        <v>1607005</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>261</v>
+        <v>189</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>261</v>
+        <v>189</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>262</v>
+        <v>190</v>
       </c>
       <c r="F112" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G112" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H112" s="3" t="s">
         <v>31</v>
@@ -7710,7 +6878,7 @@
         <v>0</v>
       </c>
       <c r="L112" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M112" s="3">
         <v>1001</v>
@@ -7719,10 +6887,10 @@
         <v>1</v>
       </c>
       <c r="O112" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P112" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q112" s="3"/>
       <c r="R112" s="3">
@@ -7731,25 +6899,25 @@
     </row>
     <row r="113" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="B113" s="3">
-        <v>1701013</v>
+        <v>1607006</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>263</v>
+        <v>191</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>263</v>
+        <v>191</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>264</v>
+        <v>192</v>
       </c>
       <c r="F113" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G113" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H113" s="3" t="s">
         <v>31</v>
@@ -7764,7 +6932,7 @@
         <v>0</v>
       </c>
       <c r="L113" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M113" s="3">
         <v>1001</v>
@@ -7773,10 +6941,10 @@
         <v>1</v>
       </c>
       <c r="O113" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P113" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q113" s="3"/>
       <c r="R113" s="3">
@@ -7785,25 +6953,25 @@
     </row>
     <row r="114" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="B114" s="3">
-        <v>1701014</v>
+        <v>1607007</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>265</v>
+        <v>193</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>265</v>
+        <v>193</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>266</v>
+        <v>194</v>
       </c>
       <c r="F114" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G114" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H114" s="3" t="s">
         <v>31</v>
@@ -7818,7 +6986,7 @@
         <v>0</v>
       </c>
       <c r="L114" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M114" s="3">
         <v>1001</v>
@@ -7827,10 +6995,10 @@
         <v>1</v>
       </c>
       <c r="O114" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P114" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q114" s="3"/>
       <c r="R114" s="3">
@@ -7839,25 +7007,25 @@
     </row>
     <row r="115" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="B115" s="3">
-        <v>1701015</v>
+        <v>1607008</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>267</v>
+        <v>195</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>267</v>
+        <v>195</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>268</v>
+        <v>196</v>
       </c>
       <c r="F115" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G115" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H115" s="3" t="s">
         <v>31</v>
@@ -7872,7 +7040,7 @@
         <v>0</v>
       </c>
       <c r="L115" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M115" s="3">
         <v>1001</v>
@@ -7881,10 +7049,10 @@
         <v>1</v>
       </c>
       <c r="O115" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P115" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q115" s="3"/>
       <c r="R115" s="3">
@@ -7893,25 +7061,25 @@
     </row>
     <row r="116" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="B116" s="3">
-        <v>1702001</v>
+        <v>1607009</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>269</v>
+        <v>197</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>269</v>
+        <v>197</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>270</v>
+        <v>198</v>
       </c>
       <c r="F116" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G116" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H116" s="3" t="s">
         <v>31</v>
@@ -7926,7 +7094,7 @@
         <v>0</v>
       </c>
       <c r="L116" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M116" s="3">
         <v>1001</v>
@@ -7935,10 +7103,10 @@
         <v>1</v>
       </c>
       <c r="O116" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P116" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q116" s="3"/>
       <c r="R116" s="3">
@@ -7947,25 +7115,25 @@
     </row>
     <row r="117" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="B117" s="3">
-        <v>1702002</v>
+        <v>1608001</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>271</v>
+        <v>199</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>271</v>
+        <v>199</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>272</v>
+        <v>200</v>
       </c>
       <c r="F117" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G117" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H117" s="3" t="s">
         <v>31</v>
@@ -7980,7 +7148,7 @@
         <v>0</v>
       </c>
       <c r="L117" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M117" s="3">
         <v>1001</v>
@@ -7989,10 +7157,10 @@
         <v>1</v>
       </c>
       <c r="O117" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P117" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q117" s="3"/>
       <c r="R117" s="3">
@@ -8001,25 +7169,25 @@
     </row>
     <row r="118" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="B118" s="3">
-        <v>1702003</v>
+        <v>1608002</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>273</v>
+        <v>201</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>273</v>
+        <v>201</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>274</v>
+        <v>202</v>
       </c>
       <c r="F118" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G118" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H118" s="3" t="s">
         <v>31</v>
@@ -8034,7 +7202,7 @@
         <v>0</v>
       </c>
       <c r="L118" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M118" s="3">
         <v>1001</v>
@@ -8043,10 +7211,10 @@
         <v>1</v>
       </c>
       <c r="O118" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P118" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q118" s="3"/>
       <c r="R118" s="3">
@@ -8055,25 +7223,25 @@
     </row>
     <row r="119" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="B119" s="3">
-        <v>1702004</v>
+        <v>1608003</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>275</v>
+        <v>203</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>275</v>
+        <v>203</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>276</v>
+        <v>204</v>
       </c>
       <c r="F119" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G119" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H119" s="3" t="s">
         <v>31</v>
@@ -8088,7 +7256,7 @@
         <v>0</v>
       </c>
       <c r="L119" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M119" s="3">
         <v>1001</v>
@@ -8097,10 +7265,10 @@
         <v>1</v>
       </c>
       <c r="O119" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P119" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q119" s="3"/>
       <c r="R119" s="3">
@@ -8109,25 +7277,25 @@
     </row>
     <row r="120" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="B120" s="3">
-        <v>1702005</v>
+        <v>1608004</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>277</v>
+        <v>205</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>277</v>
+        <v>205</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>278</v>
+        <v>206</v>
       </c>
       <c r="F120" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G120" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H120" s="3" t="s">
         <v>31</v>
@@ -8142,7 +7310,7 @@
         <v>0</v>
       </c>
       <c r="L120" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M120" s="3">
         <v>1001</v>
@@ -8151,10 +7319,10 @@
         <v>1</v>
       </c>
       <c r="O120" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P120" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q120" s="3"/>
       <c r="R120" s="3">
@@ -8163,25 +7331,25 @@
     </row>
     <row r="121" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="B121" s="3">
-        <v>1702006</v>
+        <v>1608005</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>279</v>
+        <v>207</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>279</v>
+        <v>207</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>280</v>
+        <v>208</v>
       </c>
       <c r="F121" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G121" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H121" s="3" t="s">
         <v>31</v>
@@ -8196,7 +7364,7 @@
         <v>0</v>
       </c>
       <c r="L121" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M121" s="3">
         <v>1001</v>
@@ -8205,10 +7373,10 @@
         <v>1</v>
       </c>
       <c r="O121" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P121" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q121" s="3"/>
       <c r="R121" s="3">
@@ -8217,25 +7385,25 @@
     </row>
     <row r="122" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="B122" s="3">
-        <v>1702007</v>
+        <v>1608006</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>281</v>
+        <v>209</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>281</v>
+        <v>209</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>282</v>
+        <v>210</v>
       </c>
       <c r="F122" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G122" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H122" s="3" t="s">
         <v>31</v>
@@ -8250,7 +7418,7 @@
         <v>0</v>
       </c>
       <c r="L122" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M122" s="3">
         <v>1001</v>
@@ -8259,10 +7427,10 @@
         <v>1</v>
       </c>
       <c r="O122" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P122" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q122" s="3"/>
       <c r="R122" s="3">
@@ -8271,25 +7439,25 @@
     </row>
     <row r="123" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="B123" s="3">
-        <v>1702008</v>
+        <v>1608007</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>283</v>
+        <v>211</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>283</v>
+        <v>211</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>284</v>
+        <v>212</v>
       </c>
       <c r="F123" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G123" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H123" s="3" t="s">
         <v>31</v>
@@ -8304,7 +7472,7 @@
         <v>0</v>
       </c>
       <c r="L123" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M123" s="3">
         <v>1001</v>
@@ -8313,10 +7481,10 @@
         <v>1</v>
       </c>
       <c r="O123" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P123" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q123" s="3"/>
       <c r="R123" s="3">
@@ -8325,25 +7493,25 @@
     </row>
     <row r="124" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="B124" s="3">
-        <v>1702009</v>
+        <v>1608008</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>285</v>
+        <v>213</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>285</v>
+        <v>213</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>286</v>
+        <v>214</v>
       </c>
       <c r="F124" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G124" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H124" s="3" t="s">
         <v>31</v>
@@ -8358,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="L124" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M124" s="3">
         <v>1001</v>
@@ -8367,10 +7535,10 @@
         <v>1</v>
       </c>
       <c r="O124" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P124" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q124" s="3"/>
       <c r="R124" s="3">
@@ -8379,25 +7547,25 @@
     </row>
     <row r="125" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="B125" s="3">
-        <v>1702010</v>
+        <v>1608009</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>287</v>
+        <v>215</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>287</v>
+        <v>215</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>288</v>
+        <v>216</v>
       </c>
       <c r="F125" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G125" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H125" s="3" t="s">
         <v>31</v>
@@ -8412,7 +7580,7 @@
         <v>0</v>
       </c>
       <c r="L125" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M125" s="3">
         <v>1001</v>
@@ -8421,10 +7589,10 @@
         <v>1</v>
       </c>
       <c r="O125" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P125" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q125" s="3"/>
       <c r="R125" s="3">
@@ -8433,25 +7601,25 @@
     </row>
     <row r="126" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="B126" s="3">
-        <v>1702011</v>
+        <v>1608010</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>289</v>
+        <v>217</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>289</v>
+        <v>217</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>290</v>
+        <v>218</v>
       </c>
       <c r="F126" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G126" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H126" s="3" t="s">
         <v>31</v>
@@ -8466,7 +7634,7 @@
         <v>0</v>
       </c>
       <c r="L126" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M126" s="3">
         <v>1001</v>
@@ -8475,10 +7643,10 @@
         <v>1</v>
       </c>
       <c r="O126" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P126" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q126" s="3"/>
       <c r="R126" s="3">
@@ -8487,25 +7655,25 @@
     </row>
     <row r="127" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="B127" s="3">
-        <v>1702012</v>
+        <v>1608011</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>291</v>
+        <v>219</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>291</v>
+        <v>219</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>292</v>
+        <v>220</v>
       </c>
       <c r="F127" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G127" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H127" s="3" t="s">
         <v>31</v>
@@ -8520,7 +7688,7 @@
         <v>0</v>
       </c>
       <c r="L127" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M127" s="3">
         <v>1001</v>
@@ -8529,10 +7697,10 @@
         <v>1</v>
       </c>
       <c r="O127" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P127" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q127" s="3"/>
       <c r="R127" s="3">
@@ -8541,25 +7709,25 @@
     </row>
     <row r="128" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="B128" s="3">
-        <v>1702013</v>
+        <v>1608012</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>293</v>
+        <v>221</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>294</v>
+        <v>222</v>
       </c>
       <c r="F128" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G128" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H128" s="3" t="s">
         <v>31</v>
@@ -8574,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="L128" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M128" s="3">
         <v>1001</v>
@@ -8583,10 +7751,10 @@
         <v>1</v>
       </c>
       <c r="O128" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P128" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q128" s="3"/>
       <c r="R128" s="3">
@@ -8595,25 +7763,25 @@
     </row>
     <row r="129" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="B129" s="3">
-        <v>1702014</v>
+        <v>1608013</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>295</v>
+        <v>223</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>295</v>
+        <v>223</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>296</v>
+        <v>224</v>
       </c>
       <c r="F129" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G129" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H129" s="3" t="s">
         <v>31</v>
@@ -8628,7 +7796,7 @@
         <v>0</v>
       </c>
       <c r="L129" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M129" s="3">
         <v>1001</v>
@@ -8637,10 +7805,10 @@
         <v>1</v>
       </c>
       <c r="O129" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P129" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q129" s="3"/>
       <c r="R129" s="3">
@@ -8649,25 +7817,25 @@
     </row>
     <row r="130" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="B130" s="3">
-        <v>1702015</v>
+        <v>1608014</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>297</v>
+        <v>225</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>297</v>
+        <v>225</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>298</v>
+        <v>226</v>
       </c>
       <c r="F130" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G130" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H130" s="3" t="s">
         <v>31</v>
@@ -8682,7 +7850,7 @@
         <v>0</v>
       </c>
       <c r="L130" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M130" s="3">
         <v>1001</v>
@@ -8691,10 +7859,10 @@
         <v>1</v>
       </c>
       <c r="O130" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P130" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q130" s="3"/>
       <c r="R130" s="3">
@@ -8703,25 +7871,25 @@
     </row>
     <row r="131" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="B131" s="3">
-        <v>1702016</v>
+        <v>1608015</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>299</v>
+        <v>227</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>299</v>
+        <v>227</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>300</v>
+        <v>228</v>
       </c>
       <c r="F131" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G131" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H131" s="3" t="s">
         <v>31</v>
@@ -8736,7 +7904,7 @@
         <v>0</v>
       </c>
       <c r="L131" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M131" s="3">
         <v>1001</v>
@@ -8745,10 +7913,10 @@
         <v>1</v>
       </c>
       <c r="O131" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P131" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q131" s="3"/>
       <c r="R131" s="3">
@@ -8757,25 +7925,25 @@
     </row>
     <row r="132" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="B132" s="3">
-        <v>1702017</v>
+        <v>1609001</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>301</v>
+        <v>229</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>301</v>
+        <v>229</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>302</v>
+        <v>230</v>
       </c>
       <c r="F132" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G132" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H132" s="3" t="s">
         <v>31</v>
@@ -8790,7 +7958,7 @@
         <v>0</v>
       </c>
       <c r="L132" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M132" s="3">
         <v>1001</v>
@@ -8799,10 +7967,10 @@
         <v>1</v>
       </c>
       <c r="O132" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P132" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q132" s="3"/>
       <c r="R132" s="3">
@@ -8811,25 +7979,25 @@
     </row>
     <row r="133" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="B133" s="3">
-        <v>1702018</v>
+        <v>1609002</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>303</v>
+        <v>231</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>303</v>
+        <v>231</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>304</v>
+        <v>232</v>
       </c>
       <c r="F133" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G133" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H133" s="3" t="s">
         <v>31</v>
@@ -8844,7 +8012,7 @@
         <v>0</v>
       </c>
       <c r="L133" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M133" s="3">
         <v>1001</v>
@@ -8853,10 +8021,10 @@
         <v>1</v>
       </c>
       <c r="O133" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P133" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q133" s="3"/>
       <c r="R133" s="3">
@@ -8865,25 +8033,25 @@
     </row>
     <row r="134" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="B134" s="3">
-        <v>1702019</v>
+        <v>1609003</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>305</v>
+        <v>233</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>305</v>
+        <v>233</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>306</v>
+        <v>234</v>
       </c>
       <c r="F134" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G134" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H134" s="3" t="s">
         <v>31</v>
@@ -8898,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="L134" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M134" s="3">
         <v>1001</v>
@@ -8907,10 +8075,10 @@
         <v>1</v>
       </c>
       <c r="O134" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P134" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q134" s="3"/>
       <c r="R134" s="3">
@@ -8919,25 +8087,25 @@
     </row>
     <row r="135" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="B135" s="3">
-        <v>1702020</v>
+        <v>1605001</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>307</v>
+        <v>235</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>307</v>
+        <v>235</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>308</v>
+        <v>236</v>
       </c>
       <c r="F135" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G135" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H135" s="3" t="s">
         <v>31</v>
@@ -8952,7 +8120,7 @@
         <v>0</v>
       </c>
       <c r="L135" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M135" s="3">
         <v>1001</v>
@@ -8961,67 +8129,2015 @@
         <v>1</v>
       </c>
       <c r="O135" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P135" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="Q135" s="3"/>
+      <c r="Q135" s="3">
+        <v>1001</v>
+      </c>
       <c r="R135" s="3">
         <v>1001</v>
       </c>
     </row>
     <row r="136" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
+        <v>97</v>
+      </c>
+      <c r="B136" s="3">
+        <v>1605002</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F136" s="3">
+        <v>16</v>
+      </c>
+      <c r="G136" s="3">
+        <v>1</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J136" s="3">
+        <v>999</v>
+      </c>
+      <c r="K136" s="3">
+        <v>0</v>
+      </c>
+      <c r="L136" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M136" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N136" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O136" s="3">
+        <v>5</v>
+      </c>
+      <c r="P136" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q136" s="3">
+        <v>1001</v>
+      </c>
+      <c r="R136" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A137" s="3">
+        <v>98</v>
+      </c>
+      <c r="B137" s="3">
+        <v>1701001</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F137" s="3">
+        <v>17</v>
+      </c>
+      <c r="G137" s="3">
+        <v>3</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J137" s="3">
+        <v>999</v>
+      </c>
+      <c r="K137" s="3">
+        <v>0</v>
+      </c>
+      <c r="L137" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M137" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N137" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O137" s="3">
+        <v>2</v>
+      </c>
+      <c r="P137" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q137" s="3"/>
+      <c r="R137" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A138" s="3">
+        <v>99</v>
+      </c>
+      <c r="B138" s="3">
+        <v>1701002</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F138" s="3">
+        <v>17</v>
+      </c>
+      <c r="G138" s="3">
+        <v>2</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J138" s="3">
+        <v>999</v>
+      </c>
+      <c r="K138" s="3">
+        <v>0</v>
+      </c>
+      <c r="L138" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M138" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N138" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O138" s="3">
+        <v>2</v>
+      </c>
+      <c r="P138" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q138" s="3"/>
+      <c r="R138" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A139" s="3">
+        <v>100</v>
+      </c>
+      <c r="B139" s="3">
+        <v>1701003</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F139" s="3">
+        <v>17</v>
+      </c>
+      <c r="G139" s="3">
+        <v>3</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J139" s="3">
+        <v>999</v>
+      </c>
+      <c r="K139" s="3">
+        <v>0</v>
+      </c>
+      <c r="L139" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M139" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N139" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O139" s="3">
+        <v>2</v>
+      </c>
+      <c r="P139" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q139" s="3"/>
+      <c r="R139" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A140" s="3">
+        <v>101</v>
+      </c>
+      <c r="B140" s="3">
+        <v>1701004</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F140" s="3">
+        <v>17</v>
+      </c>
+      <c r="G140" s="3">
+        <v>4</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J140" s="3">
+        <v>999</v>
+      </c>
+      <c r="K140" s="3">
+        <v>0</v>
+      </c>
+      <c r="L140" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M140" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N140" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O140" s="3">
+        <v>2</v>
+      </c>
+      <c r="P140" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q140" s="3"/>
+      <c r="R140" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A141" s="3">
+        <v>102</v>
+      </c>
+      <c r="B141" s="3">
+        <v>1701005</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F141" s="3">
+        <v>17</v>
+      </c>
+      <c r="G141" s="3">
+        <v>4</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J141" s="3">
+        <v>999</v>
+      </c>
+      <c r="K141" s="3">
+        <v>0</v>
+      </c>
+      <c r="L141" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M141" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N141" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O141" s="3">
+        <v>2</v>
+      </c>
+      <c r="P141" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q141" s="3"/>
+      <c r="R141" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A142" s="3">
+        <v>103</v>
+      </c>
+      <c r="B142" s="3">
+        <v>1701006</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="F142" s="3">
+        <v>17</v>
+      </c>
+      <c r="G142" s="3">
+        <v>3</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I142" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J142" s="3">
+        <v>999</v>
+      </c>
+      <c r="K142" s="3">
+        <v>0</v>
+      </c>
+      <c r="L142" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M142" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N142" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O142" s="3">
+        <v>2</v>
+      </c>
+      <c r="P142" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q142" s="3"/>
+      <c r="R142" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A143" s="3">
+        <v>104</v>
+      </c>
+      <c r="B143" s="3">
+        <v>1701007</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F143" s="3">
+        <v>17</v>
+      </c>
+      <c r="G143" s="3">
+        <v>4</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J143" s="3">
+        <v>999</v>
+      </c>
+      <c r="K143" s="3">
+        <v>0</v>
+      </c>
+      <c r="L143" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M143" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N143" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O143" s="3">
+        <v>2</v>
+      </c>
+      <c r="P143" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q143" s="3"/>
+      <c r="R143" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A144" s="3">
+        <v>105</v>
+      </c>
+      <c r="B144" s="3">
+        <v>1701008</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="F144" s="3">
+        <v>17</v>
+      </c>
+      <c r="G144" s="3">
+        <v>2</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J144" s="3">
+        <v>999</v>
+      </c>
+      <c r="K144" s="3">
+        <v>0</v>
+      </c>
+      <c r="L144" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M144" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N144" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O144" s="3">
+        <v>2</v>
+      </c>
+      <c r="P144" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q144" s="3"/>
+      <c r="R144" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A145" s="3">
+        <v>106</v>
+      </c>
+      <c r="B145" s="3">
+        <v>1701009</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F145" s="3">
+        <v>17</v>
+      </c>
+      <c r="G145" s="3">
+        <v>3</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J145" s="3">
+        <v>999</v>
+      </c>
+      <c r="K145" s="3">
+        <v>0</v>
+      </c>
+      <c r="L145" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M145" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N145" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O145" s="3">
+        <v>2</v>
+      </c>
+      <c r="P145" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q145" s="3"/>
+      <c r="R145" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A146" s="3">
+        <v>107</v>
+      </c>
+      <c r="B146" s="3">
+        <v>1701010</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="F146" s="3">
+        <v>17</v>
+      </c>
+      <c r="G146" s="3">
+        <v>4</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J146" s="3">
+        <v>999</v>
+      </c>
+      <c r="K146" s="3">
+        <v>0</v>
+      </c>
+      <c r="L146" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M146" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N146" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O146" s="3">
+        <v>2</v>
+      </c>
+      <c r="P146" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q146" s="3"/>
+      <c r="R146" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A147" s="3">
+        <v>108</v>
+      </c>
+      <c r="B147" s="3">
+        <v>1701011</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F147" s="3">
+        <v>17</v>
+      </c>
+      <c r="G147" s="3">
+        <v>3</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J147" s="3">
+        <v>999</v>
+      </c>
+      <c r="K147" s="3">
+        <v>0</v>
+      </c>
+      <c r="L147" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M147" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N147" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O147" s="3">
+        <v>2</v>
+      </c>
+      <c r="P147" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q147" s="3"/>
+      <c r="R147" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A148" s="3">
+        <v>109</v>
+      </c>
+      <c r="B148" s="3">
+        <v>1701012</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F148" s="3">
+        <v>17</v>
+      </c>
+      <c r="G148" s="3">
+        <v>2</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J148" s="3">
+        <v>999</v>
+      </c>
+      <c r="K148" s="3">
+        <v>0</v>
+      </c>
+      <c r="L148" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M148" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N148" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O148" s="3">
+        <v>2</v>
+      </c>
+      <c r="P148" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q148" s="3"/>
+      <c r="R148" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A149" s="3">
+        <v>110</v>
+      </c>
+      <c r="B149" s="3">
+        <v>1701013</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F149" s="3">
+        <v>17</v>
+      </c>
+      <c r="G149" s="3">
+        <v>2</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J149" s="3">
+        <v>999</v>
+      </c>
+      <c r="K149" s="3">
+        <v>0</v>
+      </c>
+      <c r="L149" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M149" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N149" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O149" s="3">
+        <v>2</v>
+      </c>
+      <c r="P149" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q149" s="3"/>
+      <c r="R149" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A150" s="3">
+        <v>111</v>
+      </c>
+      <c r="B150" s="3">
+        <v>1701014</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F150" s="3">
+        <v>17</v>
+      </c>
+      <c r="G150" s="3">
+        <v>3</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J150" s="3">
+        <v>999</v>
+      </c>
+      <c r="K150" s="3">
+        <v>0</v>
+      </c>
+      <c r="L150" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M150" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N150" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O150" s="3">
+        <v>2</v>
+      </c>
+      <c r="P150" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q150" s="3"/>
+      <c r="R150" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A151" s="3">
+        <v>112</v>
+      </c>
+      <c r="B151" s="3">
+        <v>1701015</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F151" s="3">
+        <v>17</v>
+      </c>
+      <c r="G151" s="3">
+        <v>2</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J151" s="3">
+        <v>999</v>
+      </c>
+      <c r="K151" s="3">
+        <v>0</v>
+      </c>
+      <c r="L151" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M151" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N151" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O151" s="3">
+        <v>2</v>
+      </c>
+      <c r="P151" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q151" s="3"/>
+      <c r="R151" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A152" s="3">
+        <v>113</v>
+      </c>
+      <c r="B152" s="3">
+        <v>1702001</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F152" s="3">
+        <v>17</v>
+      </c>
+      <c r="G152" s="3">
+        <v>4</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J152" s="3">
+        <v>999</v>
+      </c>
+      <c r="K152" s="3">
+        <v>0</v>
+      </c>
+      <c r="L152" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M152" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N152" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O152" s="3">
+        <v>3</v>
+      </c>
+      <c r="P152" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q152" s="3"/>
+      <c r="R152" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A153" s="3">
+        <v>114</v>
+      </c>
+      <c r="B153" s="3">
+        <v>1702002</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F153" s="3">
+        <v>17</v>
+      </c>
+      <c r="G153" s="3">
+        <v>3</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J153" s="3">
+        <v>999</v>
+      </c>
+      <c r="K153" s="3">
+        <v>0</v>
+      </c>
+      <c r="L153" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M153" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N153" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O153" s="3">
+        <v>3</v>
+      </c>
+      <c r="P153" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q153" s="3"/>
+      <c r="R153" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A154" s="3">
+        <v>115</v>
+      </c>
+      <c r="B154" s="3">
+        <v>1702003</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F154" s="3">
+        <v>17</v>
+      </c>
+      <c r="G154" s="3">
+        <v>3</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J154" s="3">
+        <v>999</v>
+      </c>
+      <c r="K154" s="3">
+        <v>0</v>
+      </c>
+      <c r="L154" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M154" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N154" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O154" s="3">
+        <v>3</v>
+      </c>
+      <c r="P154" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q154" s="3"/>
+      <c r="R154" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A155" s="3">
+        <v>116</v>
+      </c>
+      <c r="B155" s="3">
+        <v>1702004</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F155" s="3">
+        <v>17</v>
+      </c>
+      <c r="G155" s="3">
+        <v>2</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J155" s="3">
+        <v>999</v>
+      </c>
+      <c r="K155" s="3">
+        <v>0</v>
+      </c>
+      <c r="L155" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M155" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N155" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O155" s="3">
+        <v>3</v>
+      </c>
+      <c r="P155" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q155" s="3"/>
+      <c r="R155" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A156" s="3">
+        <v>117</v>
+      </c>
+      <c r="B156" s="3">
+        <v>1702005</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="F156" s="3">
+        <v>17</v>
+      </c>
+      <c r="G156" s="3">
+        <v>3</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J156" s="3">
+        <v>999</v>
+      </c>
+      <c r="K156" s="3">
+        <v>0</v>
+      </c>
+      <c r="L156" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M156" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N156" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O156" s="3">
+        <v>3</v>
+      </c>
+      <c r="P156" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q156" s="3"/>
+      <c r="R156" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A157" s="3">
+        <v>118</v>
+      </c>
+      <c r="B157" s="3">
+        <v>1702006</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F157" s="3">
+        <v>17</v>
+      </c>
+      <c r="G157" s="3">
+        <v>4</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J157" s="3">
+        <v>999</v>
+      </c>
+      <c r="K157" s="3">
+        <v>0</v>
+      </c>
+      <c r="L157" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M157" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N157" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O157" s="3">
+        <v>3</v>
+      </c>
+      <c r="P157" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q157" s="3"/>
+      <c r="R157" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A158" s="3">
+        <v>119</v>
+      </c>
+      <c r="B158" s="3">
+        <v>1702007</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F158" s="3">
+        <v>17</v>
+      </c>
+      <c r="G158" s="3">
+        <v>3</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J158" s="3">
+        <v>999</v>
+      </c>
+      <c r="K158" s="3">
+        <v>0</v>
+      </c>
+      <c r="L158" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M158" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N158" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O158" s="3">
+        <v>3</v>
+      </c>
+      <c r="P158" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q158" s="3"/>
+      <c r="R158" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A159" s="3">
+        <v>120</v>
+      </c>
+      <c r="B159" s="3">
+        <v>1702008</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="F159" s="3">
+        <v>17</v>
+      </c>
+      <c r="G159" s="3">
+        <v>4</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J159" s="3">
+        <v>999</v>
+      </c>
+      <c r="K159" s="3">
+        <v>0</v>
+      </c>
+      <c r="L159" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M159" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N159" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O159" s="3">
+        <v>3</v>
+      </c>
+      <c r="P159" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q159" s="3"/>
+      <c r="R159" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A160" s="3">
+        <v>121</v>
+      </c>
+      <c r="B160" s="3">
+        <v>1702009</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F160" s="3">
+        <v>17</v>
+      </c>
+      <c r="G160" s="3">
+        <v>4</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J160" s="3">
+        <v>999</v>
+      </c>
+      <c r="K160" s="3">
+        <v>0</v>
+      </c>
+      <c r="L160" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M160" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N160" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O160" s="3">
+        <v>3</v>
+      </c>
+      <c r="P160" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q160" s="3"/>
+      <c r="R160" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A161" s="3">
+        <v>122</v>
+      </c>
+      <c r="B161" s="3">
+        <v>1702010</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="F161" s="3">
+        <v>17</v>
+      </c>
+      <c r="G161" s="3">
+        <v>4</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I161" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J161" s="3">
+        <v>999</v>
+      </c>
+      <c r="K161" s="3">
+        <v>0</v>
+      </c>
+      <c r="L161" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M161" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N161" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O161" s="3">
+        <v>3</v>
+      </c>
+      <c r="P161" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q161" s="3"/>
+      <c r="R161" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A162" s="3">
+        <v>123</v>
+      </c>
+      <c r="B162" s="3">
+        <v>1702011</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F162" s="3">
+        <v>17</v>
+      </c>
+      <c r="G162" s="3">
+        <v>4</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J162" s="3">
+        <v>999</v>
+      </c>
+      <c r="K162" s="3">
+        <v>0</v>
+      </c>
+      <c r="L162" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M162" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N162" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O162" s="3">
+        <v>3</v>
+      </c>
+      <c r="P162" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q162" s="3"/>
+      <c r="R162" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A163" s="3">
+        <v>124</v>
+      </c>
+      <c r="B163" s="3">
+        <v>1702012</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F163" s="3">
+        <v>17</v>
+      </c>
+      <c r="G163" s="3">
+        <v>4</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I163" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J163" s="3">
+        <v>999</v>
+      </c>
+      <c r="K163" s="3">
+        <v>0</v>
+      </c>
+      <c r="L163" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M163" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N163" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O163" s="3">
+        <v>3</v>
+      </c>
+      <c r="P163" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q163" s="3"/>
+      <c r="R163" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A164" s="3">
+        <v>125</v>
+      </c>
+      <c r="B164" s="3">
+        <v>1702013</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F164" s="3">
+        <v>17</v>
+      </c>
+      <c r="G164" s="3">
+        <v>2</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J164" s="3">
+        <v>999</v>
+      </c>
+      <c r="K164" s="3">
+        <v>0</v>
+      </c>
+      <c r="L164" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M164" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N164" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O164" s="3">
+        <v>3</v>
+      </c>
+      <c r="P164" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q164" s="3"/>
+      <c r="R164" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A165" s="3">
+        <v>126</v>
+      </c>
+      <c r="B165" s="3">
+        <v>1702014</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F165" s="3">
+        <v>17</v>
+      </c>
+      <c r="G165" s="3">
+        <v>3</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I165" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J165" s="3">
+        <v>999</v>
+      </c>
+      <c r="K165" s="3">
+        <v>0</v>
+      </c>
+      <c r="L165" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M165" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N165" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O165" s="3">
+        <v>3</v>
+      </c>
+      <c r="P165" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q165" s="3"/>
+      <c r="R165" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A166" s="3">
+        <v>127</v>
+      </c>
+      <c r="B166" s="3">
+        <v>1702015</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="F166" s="3">
+        <v>17</v>
+      </c>
+      <c r="G166" s="3">
+        <v>2</v>
+      </c>
+      <c r="H166" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I166" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J166" s="3">
+        <v>999</v>
+      </c>
+      <c r="K166" s="3">
+        <v>0</v>
+      </c>
+      <c r="L166" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M166" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N166" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O166" s="3">
+        <v>3</v>
+      </c>
+      <c r="P166" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q166" s="3"/>
+      <c r="R166" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A167" s="3">
+        <v>128</v>
+      </c>
+      <c r="B167" s="3">
+        <v>1702016</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F167" s="3">
+        <v>17</v>
+      </c>
+      <c r="G167" s="3">
+        <v>4</v>
+      </c>
+      <c r="H167" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I167" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J167" s="3">
+        <v>999</v>
+      </c>
+      <c r="K167" s="3">
+        <v>0</v>
+      </c>
+      <c r="L167" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M167" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N167" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O167" s="3">
+        <v>3</v>
+      </c>
+      <c r="P167" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q167" s="3"/>
+      <c r="R167" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A168" s="3">
+        <v>129</v>
+      </c>
+      <c r="B168" s="3">
+        <v>1702017</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="F168" s="3">
+        <v>17</v>
+      </c>
+      <c r="G168" s="3">
+        <v>3</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I168" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J168" s="3">
+        <v>999</v>
+      </c>
+      <c r="K168" s="3">
+        <v>0</v>
+      </c>
+      <c r="L168" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M168" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N168" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O168" s="3">
+        <v>3</v>
+      </c>
+      <c r="P168" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q168" s="3"/>
+      <c r="R168" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A169" s="3">
+        <v>130</v>
+      </c>
+      <c r="B169" s="3">
+        <v>1702018</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F169" s="3">
+        <v>17</v>
+      </c>
+      <c r="G169" s="3">
+        <v>2</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J169" s="3">
+        <v>999</v>
+      </c>
+      <c r="K169" s="3">
+        <v>0</v>
+      </c>
+      <c r="L169" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M169" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N169" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O169" s="3">
+        <v>3</v>
+      </c>
+      <c r="P169" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q169" s="3"/>
+      <c r="R169" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A170" s="3">
+        <v>131</v>
+      </c>
+      <c r="B170" s="3">
+        <v>1702019</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F170" s="3">
+        <v>17</v>
+      </c>
+      <c r="G170" s="3">
+        <v>2</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I170" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J170" s="3">
+        <v>999</v>
+      </c>
+      <c r="K170" s="3">
+        <v>0</v>
+      </c>
+      <c r="L170" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M170" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N170" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O170" s="3">
+        <v>3</v>
+      </c>
+      <c r="P170" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q170" s="3"/>
+      <c r="R170" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A171" s="3">
+        <v>132</v>
+      </c>
+      <c r="B171" s="3">
+        <v>1702020</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="F171" s="3">
+        <v>17</v>
+      </c>
+      <c r="G171" s="3">
+        <v>3</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I171" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J171" s="3">
+        <v>999</v>
+      </c>
+      <c r="K171" s="3">
+        <v>0</v>
+      </c>
+      <c r="L171" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M171" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N171" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O171" s="3">
+        <v>3</v>
+      </c>
+      <c r="P171" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q171" s="3"/>
+      <c r="R171" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A172" s="3">
         <v>133</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B172" s="3">
         <v>1702021</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C172" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="D172" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="E136" s="3" t="s">
+      <c r="E172" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="F136" s="3">
+      <c r="F172" s="3">
         <v>17</v>
       </c>
-      <c r="G136" s="3">
+      <c r="G172" s="3">
         <v>2</v>
       </c>
-      <c r="H136" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I136" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J136" s="3">
-        <v>999</v>
-      </c>
-      <c r="K136" s="3">
-        <v>0</v>
-      </c>
-      <c r="L136" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M136" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N136" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O136" s="3">
+      <c r="H172" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J172" s="3">
+        <v>999</v>
+      </c>
+      <c r="K172" s="3">
+        <v>0</v>
+      </c>
+      <c r="L172" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M172" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N172" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O172" s="3">
         <v>3</v>
       </c>
-      <c r="P136" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q136" s="3"/>
-      <c r="R136" s="3">
+      <c r="P172" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q172" s="3"/>
+      <c r="R172" s="3">
         <v>1001</v>
       </c>
     </row>

--- a/Excel/镇魂街/新配置表/item.道具.xlsx
+++ b/Excel/镇魂街/新配置表/item.道具.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="328">
   <si>
     <t>sheet名</t>
   </si>
@@ -1049,114 +1049,6 @@
   <si>
     <t>int:e&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>常服曹焱兵</t>
-  </si>
-  <si>
-    <t>曹玄亮</t>
-  </si>
-  <si>
-    <t>战斗夏玲</t>
-  </si>
-  <si>
-    <t>项昆仑</t>
-  </si>
-  <si>
-    <t>刘羽禅</t>
-  </si>
-  <si>
-    <t>红莲·缇娜</t>
-  </si>
-  <si>
-    <t>战斗曹焱兵</t>
-  </si>
-  <si>
-    <t>黑尔·坎普</t>
-  </si>
-  <si>
-    <t>北落师门</t>
-  </si>
-  <si>
-    <t>盖文</t>
-  </si>
-  <si>
-    <t>阎风吒</t>
-  </si>
-  <si>
-    <t>南御夫</t>
-  </si>
-  <si>
-    <t>吉拉</t>
-  </si>
-  <si>
-    <t>吕仙宫</t>
-  </si>
-  <si>
-    <t>阎巧巧</t>
-  </si>
-  <si>
-    <t>关羽</t>
-  </si>
-  <si>
-    <t>许褚</t>
-  </si>
-  <si>
-    <t>典韦</t>
-  </si>
-  <si>
-    <t>唐流雨</t>
-  </si>
-  <si>
-    <t>李轩辕</t>
-  </si>
-  <si>
-    <t>项羽</t>
-  </si>
-  <si>
-    <t>天使缇娜</t>
-  </si>
-  <si>
-    <t>夏侯渊</t>
-  </si>
-  <si>
-    <t>徐晃</t>
-  </si>
-  <si>
-    <t>张郃</t>
-  </si>
-  <si>
-    <t>张飞</t>
-  </si>
-  <si>
-    <t>夏侯惇</t>
-  </si>
-  <si>
-    <t>塞伯罗斯</t>
-  </si>
-  <si>
-    <t>石灵明</t>
-  </si>
-  <si>
-    <t>于禁</t>
-  </si>
-  <si>
-    <t>西方龙</t>
-  </si>
-  <si>
-    <t>飞廉</t>
-  </si>
-  <si>
-    <t>噬日</t>
-  </si>
-  <si>
-    <t>食火蜥</t>
-  </si>
-  <si>
-    <t>高顺</t>
-  </si>
-  <si>
-    <t>烈风螳螂</t>
   </si>
 </sst>
 </file>
@@ -1778,10 +1670,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R172"/>
+  <dimension ref="A1:R136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1976,1027 +1868,1939 @@
         <v>1</v>
       </c>
       <c r="B4" s="3">
-        <v>1101001</v>
+        <v>1401001</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>328</v>
+        <v>45</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="3">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N4" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
+      <c r="P4" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
+      <c r="R4" s="3">
+        <v>1001</v>
+      </c>
     </row>
     <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3">
-        <v>1101002</v>
+        <v>1401002</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>329</v>
+        <v>47</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="3">
+        <v>14</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N5" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
+      <c r="P5" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
+      <c r="R5" s="3">
+        <v>1001</v>
+      </c>
     </row>
     <row r="6" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="3">
-        <v>1101003</v>
+        <v>1401003</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>330</v>
+        <v>49</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="3">
+        <v>14</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N6" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
+      <c r="P6" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
+      <c r="R6" s="3">
+        <v>1001</v>
+      </c>
     </row>
     <row r="7" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="3">
-        <v>1101004</v>
+        <v>1401004</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>331</v>
+        <v>51</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="3">
+        <v>14</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N7" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
+      <c r="P7" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
+      <c r="R7" s="3">
+        <v>1001</v>
+      </c>
     </row>
     <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="3">
-        <v>1101005</v>
+        <v>1401005</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>332</v>
+        <v>53</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="3">
+        <v>14</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N8" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
+      <c r="P8" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
+      <c r="R8" s="3">
+        <v>1001</v>
+      </c>
     </row>
     <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="3">
-        <v>1101006</v>
+        <v>1401006</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>333</v>
+        <v>55</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="3">
+        <v>14</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N9" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
+      <c r="P9" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
+      <c r="R9" s="3">
+        <v>1001</v>
+      </c>
     </row>
     <row r="10" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>7</v>
       </c>
       <c r="B10" s="3">
-        <v>1101007</v>
+        <v>1401007</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>334</v>
+        <v>57</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="3">
+        <v>14</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N10" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
+      <c r="P10" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
+      <c r="R10" s="3">
+        <v>1001</v>
+      </c>
     </row>
     <row r="11" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>8</v>
       </c>
       <c r="B11" s="3">
-        <v>1101008</v>
+        <v>1401008</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>335</v>
+        <v>59</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="3">
+        <v>14</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N11" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
+      <c r="P11" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
+      <c r="R11" s="3">
+        <v>1001</v>
+      </c>
     </row>
     <row r="12" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>9</v>
       </c>
       <c r="B12" s="3">
-        <v>1101009</v>
+        <v>1401009</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>336</v>
+        <v>61</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="3">
+        <v>14</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N12" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
+      <c r="P12" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
+      <c r="R12" s="3">
+        <v>1001</v>
+      </c>
     </row>
     <row r="13" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>10</v>
       </c>
       <c r="B13" s="3">
-        <v>1101010</v>
+        <v>1401010</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>337</v>
+        <v>63</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="3">
+        <v>14</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N13" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
+      <c r="P13" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
+      <c r="R13" s="3">
+        <v>1001</v>
+      </c>
     </row>
     <row r="14" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>11</v>
       </c>
       <c r="B14" s="3">
-        <v>1101011</v>
+        <v>1601001</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>338</v>
+        <v>65</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="3">
+        <v>16</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J14" s="3">
+        <v>999</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N14" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
+      <c r="P14" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
+      <c r="R14" s="3">
+        <v>1001</v>
+      </c>
     </row>
     <row r="15" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>12</v>
       </c>
       <c r="B15" s="3">
-        <v>1101012</v>
+        <v>1602001</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>339</v>
+        <v>67</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="3">
+        <v>16</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J15" s="3">
+        <v>999</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N15" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
+      <c r="P15" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
+      <c r="R15" s="3">
+        <v>1001</v>
+      </c>
     </row>
     <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>13</v>
       </c>
       <c r="B16" s="3">
-        <v>1101013</v>
+        <v>1603001</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>340</v>
+        <v>69</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
+        <v>69</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="3">
+        <v>16</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" s="3">
+        <v>999</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N16" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O16" s="3">
+        <v>1</v>
+      </c>
+      <c r="P16" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
+      <c r="R16" s="3">
+        <v>1001</v>
+      </c>
     </row>
     <row r="17" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>14</v>
       </c>
       <c r="B17" s="3">
-        <v>1101014</v>
+        <v>1603002</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>341</v>
+        <v>71</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
+        <v>71</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="3">
+        <v>16</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="3">
+        <v>999</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N17" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1</v>
+      </c>
+      <c r="P17" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
+      <c r="R17" s="3">
+        <v>1001</v>
+      </c>
     </row>
     <row r="18" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>15</v>
       </c>
       <c r="B18" s="3">
-        <v>1101015</v>
+        <v>1603003</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>342</v>
+        <v>73</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="3">
+        <v>16</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="3">
+        <v>999</v>
+      </c>
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N18" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O18" s="3">
+        <v>1</v>
+      </c>
+      <c r="P18" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
+      <c r="R18" s="3">
+        <v>1001</v>
+      </c>
     </row>
     <row r="19" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>16</v>
       </c>
       <c r="B19" s="3">
-        <v>1102001</v>
+        <v>1603004</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>343</v>
+        <v>75</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="3">
+        <v>16</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="3">
+        <v>999</v>
+      </c>
+      <c r="K19" s="3">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N19" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O19" s="3">
+        <v>1</v>
+      </c>
+      <c r="P19" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
+      <c r="R19" s="3">
+        <v>1001</v>
+      </c>
     </row>
     <row r="20" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>17</v>
       </c>
       <c r="B20" s="3">
-        <v>1102002</v>
+        <v>1603005</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>344</v>
+        <v>77</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="3">
+        <v>16</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="3">
+        <v>999</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N20" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O20" s="3">
+        <v>1</v>
+      </c>
+      <c r="P20" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
+      <c r="R20" s="3">
+        <v>1001</v>
+      </c>
     </row>
     <row r="21" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>18</v>
       </c>
       <c r="B21" s="3">
-        <v>1102003</v>
+        <v>1603006</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="3">
+        <v>16</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="3">
+        <v>999</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N21" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O21" s="3">
+        <v>1</v>
+      </c>
+      <c r="P21" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
+      <c r="R21" s="3">
+        <v>1001</v>
+      </c>
     </row>
     <row r="22" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>19</v>
       </c>
       <c r="B22" s="3">
-        <v>1102004</v>
+        <v>1603007</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>346</v>
+        <v>81</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
+        <v>81</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="3">
+        <v>16</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="3">
+        <v>999</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N22" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O22" s="3">
+        <v>1</v>
+      </c>
+      <c r="P22" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
+      <c r="R22" s="3">
+        <v>1001</v>
+      </c>
     </row>
     <row r="23" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>20</v>
       </c>
       <c r="B23" s="3">
-        <v>1102005</v>
+        <v>1603008</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>347</v>
+        <v>83</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="3">
+        <v>16</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="3">
+        <v>999</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N23" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O23" s="3">
+        <v>1</v>
+      </c>
+      <c r="P23" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
+      <c r="R23" s="3">
+        <v>1001</v>
+      </c>
     </row>
     <row r="24" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>21</v>
       </c>
       <c r="B24" s="3">
-        <v>1102006</v>
+        <v>1603009</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>348</v>
+        <v>85</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
+        <v>85</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="3">
+        <v>16</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J24" s="3">
+        <v>999</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M24" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N24" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O24" s="3">
+        <v>1</v>
+      </c>
+      <c r="P24" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
+      <c r="R24" s="3">
+        <v>1001</v>
+      </c>
     </row>
     <row r="25" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>22</v>
       </c>
       <c r="B25" s="3">
-        <v>1102007</v>
+        <v>1603010</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>349</v>
+        <v>87</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="3">
+        <v>16</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J25" s="3">
+        <v>999</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M25" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N25" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O25" s="3">
+        <v>1</v>
+      </c>
+      <c r="P25" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
+      <c r="R25" s="3">
+        <v>1001</v>
+      </c>
     </row>
     <row r="26" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>23</v>
       </c>
       <c r="B26" s="3">
-        <v>1102008</v>
+        <v>1603011</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>350</v>
+        <v>89</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="3">
+        <v>16</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J26" s="3">
+        <v>999</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M26" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N26" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O26" s="3">
+        <v>1</v>
+      </c>
+      <c r="P26" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
+      <c r="R26" s="3">
+        <v>1001</v>
+      </c>
     </row>
     <row r="27" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>24</v>
       </c>
       <c r="B27" s="3">
-        <v>1102009</v>
+        <v>1603012</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>351</v>
+        <v>91</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F27" s="3">
+        <v>16</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="3">
+        <v>999</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M27" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N27" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O27" s="3">
+        <v>1</v>
+      </c>
+      <c r="P27" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
+      <c r="R27" s="3">
+        <v>1001</v>
+      </c>
     </row>
     <row r="28" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>25</v>
       </c>
       <c r="B28" s="3">
-        <v>1102010</v>
+        <v>1603013</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>352</v>
+        <v>93</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="3">
+        <v>16</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="3">
+        <v>999</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M28" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N28" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O28" s="3">
+        <v>1</v>
+      </c>
+      <c r="P28" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
+      <c r="R28" s="3">
+        <v>1001</v>
+      </c>
     </row>
     <row r="29" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>26</v>
       </c>
       <c r="B29" s="3">
-        <v>1102011</v>
+        <v>1603014</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>353</v>
+        <v>95</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
+        <v>95</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="3">
+        <v>16</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J29" s="3">
+        <v>999</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M29" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N29" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O29" s="3">
+        <v>1</v>
+      </c>
+      <c r="P29" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
+      <c r="R29" s="3">
+        <v>1001</v>
+      </c>
     </row>
     <row r="30" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>27</v>
       </c>
       <c r="B30" s="3">
-        <v>1102012</v>
+        <v>1603015</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>354</v>
+        <v>97</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
+        <v>97</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" s="3">
+        <v>16</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="3">
+        <v>999</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M30" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N30" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O30" s="3">
+        <v>1</v>
+      </c>
+      <c r="P30" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
+      <c r="R30" s="3">
+        <v>1001</v>
+      </c>
     </row>
     <row r="31" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>28</v>
       </c>
       <c r="B31" s="3">
-        <v>1102013</v>
+        <v>1603016</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>355</v>
+        <v>99</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
+        <v>99</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="3">
+        <v>16</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" s="3">
+        <v>999</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M31" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N31" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O31" s="3">
+        <v>1</v>
+      </c>
+      <c r="P31" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
+      <c r="R31" s="3">
+        <v>1001</v>
+      </c>
     </row>
     <row r="32" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>29</v>
       </c>
       <c r="B32" s="3">
-        <v>1102014</v>
+        <v>1603017</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>356</v>
+        <v>101</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" s="3">
+        <v>16</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" s="3">
+        <v>999</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M32" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N32" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O32" s="3">
+        <v>1</v>
+      </c>
+      <c r="P32" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
+      <c r="R32" s="3">
+        <v>1001</v>
+      </c>
     </row>
     <row r="33" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>30</v>
       </c>
       <c r="B33" s="3">
-        <v>1102015</v>
+        <v>1603018</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>357</v>
+        <v>103</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
+        <v>103</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" s="3">
+        <v>16</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" s="3">
+        <v>999</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M33" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N33" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O33" s="3">
+        <v>1</v>
+      </c>
+      <c r="P33" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
+      <c r="R33" s="3">
+        <v>1001</v>
+      </c>
     </row>
     <row r="34" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>31</v>
       </c>
       <c r="B34" s="3">
-        <v>1102016</v>
+        <v>1603019</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>358</v>
+        <v>105</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
+        <v>105</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F34" s="3">
+        <v>16</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J34" s="3">
+        <v>999</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M34" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N34" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O34" s="3">
+        <v>1</v>
+      </c>
+      <c r="P34" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
+      <c r="R34" s="3">
+        <v>1001</v>
+      </c>
     </row>
     <row r="35" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>32</v>
       </c>
       <c r="B35" s="3">
-        <v>1102017</v>
+        <v>1603020</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>359</v>
+        <v>107</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35" s="3">
+        <v>16</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J35" s="3">
+        <v>999</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M35" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N35" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O35" s="3">
+        <v>1</v>
+      </c>
+      <c r="P35" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
+      <c r="R35" s="3">
+        <v>1001</v>
+      </c>
     </row>
     <row r="36" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>33</v>
       </c>
       <c r="B36" s="3">
-        <v>1102018</v>
+        <v>1603021</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>360</v>
+        <v>109</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
+        <v>109</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" s="3">
+        <v>16</v>
+      </c>
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" s="3">
+        <v>999</v>
+      </c>
+      <c r="K36" s="3">
+        <v>0</v>
+      </c>
+      <c r="L36" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M36" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N36" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O36" s="3">
+        <v>1</v>
+      </c>
+      <c r="P36" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
+      <c r="R36" s="3">
+        <v>1001</v>
+      </c>
     </row>
     <row r="37" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>34</v>
       </c>
       <c r="B37" s="3">
-        <v>1102019</v>
+        <v>1603022</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>361</v>
+        <v>111</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
+        <v>111</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F37" s="3">
+        <v>16</v>
+      </c>
+      <c r="G37" s="3">
+        <v>1</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J37" s="3">
+        <v>999</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0</v>
+      </c>
+      <c r="L37" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M37" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N37" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O37" s="3">
+        <v>1</v>
+      </c>
+      <c r="P37" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
+      <c r="R37" s="3">
+        <v>1001</v>
+      </c>
     </row>
     <row r="38" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>35</v>
       </c>
       <c r="B38" s="3">
-        <v>1102020</v>
+        <v>1604001</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>362</v>
+        <v>113</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
+        <v>113</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F38" s="3">
+        <v>16</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" s="3">
+        <v>999</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0</v>
+      </c>
+      <c r="L38" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M38" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N38" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O38" s="3">
+        <v>1</v>
+      </c>
+      <c r="P38" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
+      <c r="R38" s="3">
+        <v>1001</v>
+      </c>
     </row>
     <row r="39" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>36</v>
       </c>
       <c r="B39" s="3">
-        <v>1102021</v>
+        <v>1604002</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>363</v>
+        <v>115</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F39" s="3">
+        <v>16</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J39" s="3">
+        <v>999</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0</v>
+      </c>
+      <c r="L39" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="M39" s="3">
+        <v>1001</v>
+      </c>
+      <c r="N39" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O39" s="3">
+        <v>1</v>
+      </c>
+      <c r="P39" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
+      <c r="R39" s="3">
+        <v>1001</v>
+      </c>
     </row>
     <row r="40" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B40" s="3">
-        <v>1401001</v>
+        <v>1606001</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="F40" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G40" s="3">
         <v>1</v>
@@ -3008,21 +3812,23 @@
         <v>32</v>
       </c>
       <c r="J40" s="3">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="K40" s="3">
         <v>0</v>
       </c>
       <c r="L40" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" s="3">
         <v>1001</v>
       </c>
       <c r="N40" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O40" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="O40" s="3">
+        <v>1</v>
+      </c>
       <c r="P40" s="3" t="b">
         <v>0</v>
       </c>
@@ -3033,22 +3839,22 @@
     </row>
     <row r="41" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B41" s="3">
-        <v>1401002</v>
+        <v>1606002</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="F41" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G41" s="3">
         <v>1</v>
@@ -3060,21 +3866,23 @@
         <v>32</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" s="3">
         <v>1001</v>
       </c>
       <c r="N41" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="O41" s="3">
+        <v>1</v>
+      </c>
       <c r="P41" s="3" t="b">
         <v>0</v>
       </c>
@@ -3085,22 +3893,22 @@
     </row>
     <row r="42" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="B42" s="3">
-        <v>1401003</v>
+        <v>1606003</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="F42" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G42" s="3">
         <v>1</v>
@@ -3112,21 +3920,23 @@
         <v>32</v>
       </c>
       <c r="J42" s="3">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
       <c r="L42" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" s="3">
         <v>1001</v>
       </c>
       <c r="N42" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="O42" s="3">
+        <v>1</v>
+      </c>
       <c r="P42" s="3" t="b">
         <v>0</v>
       </c>
@@ -3137,22 +3947,22 @@
     </row>
     <row r="43" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B43" s="3">
-        <v>1401004</v>
+        <v>1606004</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="F43" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G43" s="3">
         <v>1</v>
@@ -3164,21 +3974,23 @@
         <v>32</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
       <c r="L43" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" s="3">
         <v>1001</v>
       </c>
       <c r="N43" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="O43" s="3">
+        <v>1</v>
+      </c>
       <c r="P43" s="3" t="b">
         <v>0</v>
       </c>
@@ -3189,22 +4001,22 @@
     </row>
     <row r="44" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="B44" s="3">
-        <v>1401005</v>
+        <v>1606005</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="F44" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G44" s="3">
         <v>1</v>
@@ -3216,21 +4028,23 @@
         <v>32</v>
       </c>
       <c r="J44" s="3">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
       <c r="L44" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" s="3">
         <v>1001</v>
       </c>
       <c r="N44" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="O44" s="3">
+        <v>1</v>
+      </c>
       <c r="P44" s="3" t="b">
         <v>0</v>
       </c>
@@ -3241,22 +4055,22 @@
     </row>
     <row r="45" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B45" s="3">
-        <v>1401006</v>
+        <v>1606006</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="F45" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G45" s="3">
         <v>1</v>
@@ -3268,21 +4082,23 @@
         <v>32</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
       <c r="L45" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" s="3">
         <v>1001</v>
       </c>
       <c r="N45" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="O45" s="3">
+        <v>1</v>
+      </c>
       <c r="P45" s="3" t="b">
         <v>0</v>
       </c>
@@ -3293,22 +4109,22 @@
     </row>
     <row r="46" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B46" s="3">
-        <v>1401007</v>
+        <v>1606007</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="F46" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G46" s="3">
         <v>1</v>
@@ -3320,21 +4136,23 @@
         <v>32</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
       <c r="L46" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" s="3">
         <v>1001</v>
       </c>
       <c r="N46" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="O46" s="3">
+        <v>1</v>
+      </c>
       <c r="P46" s="3" t="b">
         <v>0</v>
       </c>
@@ -3345,22 +4163,22 @@
     </row>
     <row r="47" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="B47" s="3">
-        <v>1401008</v>
+        <v>1606008</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="F47" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G47" s="3">
         <v>1</v>
@@ -3372,21 +4190,23 @@
         <v>32</v>
       </c>
       <c r="J47" s="3">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
       </c>
       <c r="L47" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" s="3">
         <v>1001</v>
       </c>
       <c r="N47" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="O47" s="3">
+        <v>1</v>
+      </c>
       <c r="P47" s="3" t="b">
         <v>0</v>
       </c>
@@ -3397,22 +4217,22 @@
     </row>
     <row r="48" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B48" s="3">
-        <v>1401009</v>
+        <v>1606009</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="F48" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G48" s="3">
         <v>1</v>
@@ -3424,21 +4244,23 @@
         <v>32</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
       <c r="L48" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" s="3">
         <v>1001</v>
       </c>
       <c r="N48" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O48" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="O48" s="3">
+        <v>1</v>
+      </c>
       <c r="P48" s="3" t="b">
         <v>0</v>
       </c>
@@ -3449,22 +4271,22 @@
     </row>
     <row r="49" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="B49" s="3">
-        <v>1401010</v>
+        <v>1606010</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="F49" s="3">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G49" s="3">
         <v>1</v>
@@ -3476,21 +4298,23 @@
         <v>32</v>
       </c>
       <c r="J49" s="3">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
       <c r="L49" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" s="3">
         <v>1001</v>
       </c>
       <c r="N49" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O49" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="O49" s="3">
+        <v>1</v>
+      </c>
       <c r="P49" s="3" t="b">
         <v>0</v>
       </c>
@@ -3501,19 +4325,19 @@
     </row>
     <row r="50" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B50" s="3">
-        <v>1601001</v>
+        <v>1606011</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="F50" s="3">
         <v>16</v>
@@ -3534,15 +4358,17 @@
         <v>0</v>
       </c>
       <c r="L50" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" s="3">
         <v>1001</v>
       </c>
       <c r="N50" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O50" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="O50" s="3">
+        <v>1</v>
+      </c>
       <c r="P50" s="3" t="b">
         <v>0</v>
       </c>
@@ -3553,19 +4379,19 @@
     </row>
     <row r="51" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="B51" s="3">
-        <v>1602001</v>
+        <v>1606012</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="F51" s="3">
         <v>16</v>
@@ -3586,15 +4412,17 @@
         <v>0</v>
       </c>
       <c r="L51" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" s="3">
         <v>1001</v>
       </c>
       <c r="N51" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O51" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="O51" s="3">
+        <v>1</v>
+      </c>
       <c r="P51" s="3" t="b">
         <v>0</v>
       </c>
@@ -3605,19 +4433,19 @@
     </row>
     <row r="52" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B52" s="3">
-        <v>1603001</v>
+        <v>1606013</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
       <c r="F52" s="3">
         <v>16</v>
@@ -3659,19 +4487,19 @@
     </row>
     <row r="53" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="B53" s="3">
-        <v>1603002</v>
+        <v>1606014</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="F53" s="3">
         <v>16</v>
@@ -3713,19 +4541,19 @@
     </row>
     <row r="54" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B54" s="3">
-        <v>1603003</v>
+        <v>1606015</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
       <c r="F54" s="3">
         <v>16</v>
@@ -3767,19 +4595,19 @@
     </row>
     <row r="55" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="B55" s="3">
-        <v>1603004</v>
+        <v>1606016</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="F55" s="3">
         <v>16</v>
@@ -3821,19 +4649,19 @@
     </row>
     <row r="56" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B56" s="3">
-        <v>1603005</v>
+        <v>1606017</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>78</v>
+        <v>150</v>
       </c>
       <c r="F56" s="3">
         <v>16</v>
@@ -3875,19 +4703,19 @@
     </row>
     <row r="57" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B57" s="3">
-        <v>1603006</v>
+        <v>1606018</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="F57" s="3">
         <v>16</v>
@@ -3929,19 +4757,19 @@
     </row>
     <row r="58" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="B58" s="3">
-        <v>1603007</v>
+        <v>1606019</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="F58" s="3">
         <v>16</v>
@@ -3983,19 +4811,19 @@
     </row>
     <row r="59" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="B59" s="3">
-        <v>1603008</v>
+        <v>1606020</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>84</v>
+        <v>156</v>
       </c>
       <c r="F59" s="3">
         <v>16</v>
@@ -4037,19 +4865,19 @@
     </row>
     <row r="60" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="B60" s="3">
-        <v>1603009</v>
+        <v>1606021</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="F60" s="3">
         <v>16</v>
@@ -4091,19 +4919,19 @@
     </row>
     <row r="61" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="B61" s="3">
-        <v>1603010</v>
+        <v>1606022</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>87</v>
+        <v>159</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>87</v>
+        <v>159</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>88</v>
+        <v>160</v>
       </c>
       <c r="F61" s="3">
         <v>16</v>
@@ -4145,19 +4973,19 @@
     </row>
     <row r="62" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="B62" s="3">
-        <v>1603011</v>
+        <v>1606023</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>90</v>
+        <v>162</v>
       </c>
       <c r="F62" s="3">
         <v>16</v>
@@ -4199,19 +5027,19 @@
     </row>
     <row r="63" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="B63" s="3">
-        <v>1603012</v>
+        <v>1606024</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>92</v>
+        <v>164</v>
       </c>
       <c r="F63" s="3">
         <v>16</v>
@@ -4253,19 +5081,19 @@
     </row>
     <row r="64" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="B64" s="3">
-        <v>1603013</v>
+        <v>1606025</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>93</v>
+        <v>165</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>93</v>
+        <v>165</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="F64" s="3">
         <v>16</v>
@@ -4307,19 +5135,19 @@
     </row>
     <row r="65" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="B65" s="3">
-        <v>1603014</v>
+        <v>1606026</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="F65" s="3">
         <v>16</v>
@@ -4361,19 +5189,19 @@
     </row>
     <row r="66" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="B66" s="3">
-        <v>1603015</v>
+        <v>1606027</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="F66" s="3">
         <v>16</v>
@@ -4415,19 +5243,19 @@
     </row>
     <row r="67" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="B67" s="3">
-        <v>1603016</v>
+        <v>1606028</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>99</v>
+        <v>171</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="F67" s="3">
         <v>16</v>
@@ -4469,19 +5297,19 @@
     </row>
     <row r="68" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="B68" s="3">
-        <v>1603017</v>
+        <v>1606029</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>101</v>
+        <v>173</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>101</v>
+        <v>173</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>102</v>
+        <v>174</v>
       </c>
       <c r="F68" s="3">
         <v>16</v>
@@ -4523,19 +5351,19 @@
     </row>
     <row r="69" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="B69" s="3">
-        <v>1603018</v>
+        <v>1606030</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="F69" s="3">
         <v>16</v>
@@ -4577,19 +5405,19 @@
     </row>
     <row r="70" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="B70" s="3">
-        <v>1603019</v>
+        <v>1606031</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="F70" s="3">
         <v>16</v>
@@ -4631,19 +5459,19 @@
     </row>
     <row r="71" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="B71" s="3">
-        <v>1603020</v>
+        <v>1606032</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="F71" s="3">
         <v>16</v>
@@ -4685,19 +5513,19 @@
     </row>
     <row r="72" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="B72" s="3">
-        <v>1603021</v>
+        <v>1607001</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>110</v>
+        <v>182</v>
       </c>
       <c r="F72" s="3">
         <v>16</v>
@@ -4739,19 +5567,19 @@
     </row>
     <row r="73" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="B73" s="3">
-        <v>1603022</v>
+        <v>1607002</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>111</v>
+        <v>183</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>111</v>
+        <v>183</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="F73" s="3">
         <v>16</v>
@@ -4793,19 +5621,19 @@
     </row>
     <row r="74" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="B74" s="3">
-        <v>1604001</v>
+        <v>1607003</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>113</v>
+        <v>185</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>113</v>
+        <v>185</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>114</v>
+        <v>186</v>
       </c>
       <c r="F74" s="3">
         <v>16</v>
@@ -4847,19 +5675,19 @@
     </row>
     <row r="75" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="B75" s="3">
-        <v>1604002</v>
+        <v>1607004</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>115</v>
+        <v>187</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>115</v>
+        <v>187</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>116</v>
+        <v>188</v>
       </c>
       <c r="F75" s="3">
         <v>16</v>
@@ -4901,19 +5729,19 @@
     </row>
     <row r="76" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="B76" s="3">
-        <v>1606001</v>
+        <v>1607005</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>117</v>
+        <v>189</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>117</v>
+        <v>189</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>118</v>
+        <v>190</v>
       </c>
       <c r="F76" s="3">
         <v>16</v>
@@ -4955,19 +5783,19 @@
     </row>
     <row r="77" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="B77" s="3">
-        <v>1606002</v>
+        <v>1607006</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>119</v>
+        <v>191</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>119</v>
+        <v>191</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>120</v>
+        <v>192</v>
       </c>
       <c r="F77" s="3">
         <v>16</v>
@@ -5009,19 +5837,19 @@
     </row>
     <row r="78" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="B78" s="3">
-        <v>1606003</v>
+        <v>1607007</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>121</v>
+        <v>193</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>121</v>
+        <v>193</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>122</v>
+        <v>194</v>
       </c>
       <c r="F78" s="3">
         <v>16</v>
@@ -5063,19 +5891,19 @@
     </row>
     <row r="79" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B79" s="3">
-        <v>1606004</v>
+        <v>1607008</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>123</v>
+        <v>195</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>124</v>
+        <v>196</v>
       </c>
       <c r="F79" s="3">
         <v>16</v>
@@ -5117,19 +5945,19 @@
     </row>
     <row r="80" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="B80" s="3">
-        <v>1606005</v>
+        <v>1607009</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>125</v>
+        <v>197</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>126</v>
+        <v>198</v>
       </c>
       <c r="F80" s="3">
         <v>16</v>
@@ -5171,19 +5999,19 @@
     </row>
     <row r="81" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="B81" s="3">
-        <v>1606006</v>
+        <v>1608001</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>127</v>
+        <v>199</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>127</v>
+        <v>199</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>128</v>
+        <v>200</v>
       </c>
       <c r="F81" s="3">
         <v>16</v>
@@ -5225,19 +6053,19 @@
     </row>
     <row r="82" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="B82" s="3">
-        <v>1606007</v>
+        <v>1608002</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>129</v>
+        <v>201</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>129</v>
+        <v>201</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
       <c r="F82" s="3">
         <v>16</v>
@@ -5279,19 +6107,19 @@
     </row>
     <row r="83" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="B83" s="3">
-        <v>1606008</v>
+        <v>1608003</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>131</v>
+        <v>203</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>131</v>
+        <v>203</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>132</v>
+        <v>204</v>
       </c>
       <c r="F83" s="3">
         <v>16</v>
@@ -5333,19 +6161,19 @@
     </row>
     <row r="84" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="B84" s="3">
-        <v>1606009</v>
+        <v>1608004</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>134</v>
+        <v>206</v>
       </c>
       <c r="F84" s="3">
         <v>16</v>
@@ -5387,19 +6215,19 @@
     </row>
     <row r="85" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="B85" s="3">
-        <v>1606010</v>
+        <v>1608005</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>135</v>
+        <v>207</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>135</v>
+        <v>207</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>136</v>
+        <v>208</v>
       </c>
       <c r="F85" s="3">
         <v>16</v>
@@ -5441,19 +6269,19 @@
     </row>
     <row r="86" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="B86" s="3">
-        <v>1606011</v>
+        <v>1608006</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>137</v>
+        <v>209</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>137</v>
+        <v>209</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>138</v>
+        <v>210</v>
       </c>
       <c r="F86" s="3">
         <v>16</v>
@@ -5495,19 +6323,19 @@
     </row>
     <row r="87" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="B87" s="3">
-        <v>1606012</v>
+        <v>1608007</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>139</v>
+        <v>211</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>139</v>
+        <v>211</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>140</v>
+        <v>212</v>
       </c>
       <c r="F87" s="3">
         <v>16</v>
@@ -5549,19 +6377,19 @@
     </row>
     <row r="88" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="B88" s="3">
-        <v>1606013</v>
+        <v>1608008</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>141</v>
+        <v>213</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>141</v>
+        <v>213</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>142</v>
+        <v>214</v>
       </c>
       <c r="F88" s="3">
         <v>16</v>
@@ -5603,19 +6431,19 @@
     </row>
     <row r="89" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="B89" s="3">
-        <v>1606014</v>
+        <v>1608009</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>143</v>
+        <v>215</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>143</v>
+        <v>215</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>144</v>
+        <v>216</v>
       </c>
       <c r="F89" s="3">
         <v>16</v>
@@ -5657,19 +6485,19 @@
     </row>
     <row r="90" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="B90" s="3">
-        <v>1606015</v>
+        <v>1608010</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>145</v>
+        <v>217</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>145</v>
+        <v>217</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>146</v>
+        <v>218</v>
       </c>
       <c r="F90" s="3">
         <v>16</v>
@@ -5711,19 +6539,19 @@
     </row>
     <row r="91" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="B91" s="3">
-        <v>1606016</v>
+        <v>1608011</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>147</v>
+        <v>219</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>147</v>
+        <v>219</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>148</v>
+        <v>220</v>
       </c>
       <c r="F91" s="3">
         <v>16</v>
@@ -5765,19 +6593,19 @@
     </row>
     <row r="92" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="B92" s="3">
-        <v>1606017</v>
+        <v>1608012</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>149</v>
+        <v>221</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>149</v>
+        <v>221</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>150</v>
+        <v>222</v>
       </c>
       <c r="F92" s="3">
         <v>16</v>
@@ -5819,19 +6647,19 @@
     </row>
     <row r="93" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="B93" s="3">
-        <v>1606018</v>
+        <v>1608013</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>151</v>
+        <v>223</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>151</v>
+        <v>223</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>152</v>
+        <v>224</v>
       </c>
       <c r="F93" s="3">
         <v>16</v>
@@ -5873,19 +6701,19 @@
     </row>
     <row r="94" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="B94" s="3">
-        <v>1606019</v>
+        <v>1608014</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>153</v>
+        <v>225</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>153</v>
+        <v>225</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>154</v>
+        <v>226</v>
       </c>
       <c r="F94" s="3">
         <v>16</v>
@@ -5927,19 +6755,19 @@
     </row>
     <row r="95" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="B95" s="3">
-        <v>1606020</v>
+        <v>1608015</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>155</v>
+        <v>227</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>155</v>
+        <v>227</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>156</v>
+        <v>228</v>
       </c>
       <c r="F95" s="3">
         <v>16</v>
@@ -5981,19 +6809,19 @@
     </row>
     <row r="96" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="B96" s="3">
-        <v>1606021</v>
+        <v>1609001</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>157</v>
+        <v>229</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>157</v>
+        <v>229</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>158</v>
+        <v>230</v>
       </c>
       <c r="F96" s="3">
         <v>16</v>
@@ -6035,19 +6863,19 @@
     </row>
     <row r="97" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="B97" s="3">
-        <v>1606022</v>
+        <v>1609002</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>159</v>
+        <v>231</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>159</v>
+        <v>231</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>160</v>
+        <v>232</v>
       </c>
       <c r="F97" s="3">
         <v>16</v>
@@ -6089,19 +6917,19 @@
     </row>
     <row r="98" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="B98" s="3">
-        <v>1606023</v>
+        <v>1609003</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>161</v>
+        <v>233</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>161</v>
+        <v>233</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>162</v>
+        <v>234</v>
       </c>
       <c r="F98" s="3">
         <v>16</v>
@@ -6143,19 +6971,19 @@
     </row>
     <row r="99" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="B99" s="3">
-        <v>1606024</v>
+        <v>1605001</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>163</v>
+        <v>235</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>163</v>
+        <v>235</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>164</v>
+        <v>236</v>
       </c>
       <c r="F99" s="3">
         <v>16</v>
@@ -6185,31 +7013,33 @@
         <v>1</v>
       </c>
       <c r="O99" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P99" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q99" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>1001</v>
+      </c>
       <c r="R99" s="3">
         <v>1001</v>
       </c>
     </row>
     <row r="100" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="B100" s="3">
-        <v>1606025</v>
+        <v>1605002</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>165</v>
+        <v>237</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>165</v>
+        <v>237</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>166</v>
+        <v>238</v>
       </c>
       <c r="F100" s="3">
         <v>16</v>
@@ -6239,37 +7069,39 @@
         <v>1</v>
       </c>
       <c r="O100" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P100" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>1001</v>
+      </c>
       <c r="R100" s="3">
         <v>1001</v>
       </c>
     </row>
     <row r="101" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="B101" s="3">
-        <v>1606026</v>
+        <v>1701001</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>167</v>
+        <v>239</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>167</v>
+        <v>239</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>168</v>
+        <v>240</v>
       </c>
       <c r="F101" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G101" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>31</v>
@@ -6284,7 +7116,7 @@
         <v>0</v>
       </c>
       <c r="L101" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M101" s="3">
         <v>1001</v>
@@ -6293,10 +7125,10 @@
         <v>1</v>
       </c>
       <c r="O101" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P101" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q101" s="3"/>
       <c r="R101" s="3">
@@ -6305,25 +7137,25 @@
     </row>
     <row r="102" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="B102" s="3">
-        <v>1606027</v>
+        <v>1701002</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>169</v>
+        <v>241</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>169</v>
+        <v>241</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>170</v>
+        <v>242</v>
       </c>
       <c r="F102" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G102" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>31</v>
@@ -6338,7 +7170,7 @@
         <v>0</v>
       </c>
       <c r="L102" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
         <v>1001</v>
@@ -6347,10 +7179,10 @@
         <v>1</v>
       </c>
       <c r="O102" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P102" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q102" s="3"/>
       <c r="R102" s="3">
@@ -6359,25 +7191,25 @@
     </row>
     <row r="103" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="B103" s="3">
-        <v>1606028</v>
+        <v>1701003</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>171</v>
+        <v>243</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>171</v>
+        <v>243</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>172</v>
+        <v>244</v>
       </c>
       <c r="F103" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G103" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H103" s="3" t="s">
         <v>31</v>
@@ -6392,7 +7224,7 @@
         <v>0</v>
       </c>
       <c r="L103" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M103" s="3">
         <v>1001</v>
@@ -6401,10 +7233,10 @@
         <v>1</v>
       </c>
       <c r="O103" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P103" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q103" s="3"/>
       <c r="R103" s="3">
@@ -6413,25 +7245,25 @@
     </row>
     <row r="104" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="B104" s="3">
-        <v>1606029</v>
+        <v>1701004</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>173</v>
+        <v>245</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>173</v>
+        <v>245</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>174</v>
+        <v>246</v>
       </c>
       <c r="F104" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G104" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>31</v>
@@ -6446,7 +7278,7 @@
         <v>0</v>
       </c>
       <c r="L104" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M104" s="3">
         <v>1001</v>
@@ -6455,10 +7287,10 @@
         <v>1</v>
       </c>
       <c r="O104" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P104" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q104" s="3"/>
       <c r="R104" s="3">
@@ -6467,25 +7299,25 @@
     </row>
     <row r="105" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="B105" s="3">
-        <v>1606030</v>
+        <v>1701005</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>175</v>
+        <v>247</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>175</v>
+        <v>247</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>176</v>
+        <v>248</v>
       </c>
       <c r="F105" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G105" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H105" s="3" t="s">
         <v>31</v>
@@ -6500,7 +7332,7 @@
         <v>0</v>
       </c>
       <c r="L105" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M105" s="3">
         <v>1001</v>
@@ -6509,10 +7341,10 @@
         <v>1</v>
       </c>
       <c r="O105" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P105" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q105" s="3"/>
       <c r="R105" s="3">
@@ -6521,25 +7353,25 @@
     </row>
     <row r="106" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="B106" s="3">
-        <v>1606031</v>
+        <v>1701006</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>177</v>
+        <v>249</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>177</v>
+        <v>249</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>178</v>
+        <v>250</v>
       </c>
       <c r="F106" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G106" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H106" s="3" t="s">
         <v>31</v>
@@ -6554,7 +7386,7 @@
         <v>0</v>
       </c>
       <c r="L106" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M106" s="3">
         <v>1001</v>
@@ -6563,10 +7395,10 @@
         <v>1</v>
       </c>
       <c r="O106" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P106" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q106" s="3"/>
       <c r="R106" s="3">
@@ -6575,25 +7407,25 @@
     </row>
     <row r="107" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="B107" s="3">
-        <v>1606032</v>
+        <v>1701007</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>179</v>
+        <v>251</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>179</v>
+        <v>251</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>180</v>
+        <v>252</v>
       </c>
       <c r="F107" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G107" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H107" s="3" t="s">
         <v>31</v>
@@ -6608,7 +7440,7 @@
         <v>0</v>
       </c>
       <c r="L107" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M107" s="3">
         <v>1001</v>
@@ -6617,10 +7449,10 @@
         <v>1</v>
       </c>
       <c r="O107" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P107" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q107" s="3"/>
       <c r="R107" s="3">
@@ -6629,25 +7461,25 @@
     </row>
     <row r="108" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="B108" s="3">
-        <v>1607001</v>
+        <v>1701008</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>182</v>
+        <v>254</v>
       </c>
       <c r="F108" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G108" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H108" s="3" t="s">
         <v>31</v>
@@ -6662,7 +7494,7 @@
         <v>0</v>
       </c>
       <c r="L108" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M108" s="3">
         <v>1001</v>
@@ -6671,10 +7503,10 @@
         <v>1</v>
       </c>
       <c r="O108" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P108" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q108" s="3"/>
       <c r="R108" s="3">
@@ -6683,25 +7515,25 @@
     </row>
     <row r="109" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="B109" s="3">
-        <v>1607002</v>
+        <v>1701009</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>183</v>
+        <v>255</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>183</v>
+        <v>255</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>184</v>
+        <v>256</v>
       </c>
       <c r="F109" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G109" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H109" s="3" t="s">
         <v>31</v>
@@ -6716,7 +7548,7 @@
         <v>0</v>
       </c>
       <c r="L109" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M109" s="3">
         <v>1001</v>
@@ -6725,10 +7557,10 @@
         <v>1</v>
       </c>
       <c r="O109" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P109" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q109" s="3"/>
       <c r="R109" s="3">
@@ -6737,25 +7569,25 @@
     </row>
     <row r="110" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="B110" s="3">
-        <v>1607003</v>
+        <v>1701010</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>185</v>
+        <v>257</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>185</v>
+        <v>257</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>186</v>
+        <v>258</v>
       </c>
       <c r="F110" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G110" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H110" s="3" t="s">
         <v>31</v>
@@ -6770,7 +7602,7 @@
         <v>0</v>
       </c>
       <c r="L110" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M110" s="3">
         <v>1001</v>
@@ -6779,10 +7611,10 @@
         <v>1</v>
       </c>
       <c r="O110" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P110" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q110" s="3"/>
       <c r="R110" s="3">
@@ -6791,25 +7623,25 @@
     </row>
     <row r="111" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="B111" s="3">
-        <v>1607004</v>
+        <v>1701011</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>187</v>
+        <v>259</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>187</v>
+        <v>259</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>188</v>
+        <v>260</v>
       </c>
       <c r="F111" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G111" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H111" s="3" t="s">
         <v>31</v>
@@ -6824,7 +7656,7 @@
         <v>0</v>
       </c>
       <c r="L111" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M111" s="3">
         <v>1001</v>
@@ -6833,10 +7665,10 @@
         <v>1</v>
       </c>
       <c r="O111" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P111" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q111" s="3"/>
       <c r="R111" s="3">
@@ -6845,25 +7677,25 @@
     </row>
     <row r="112" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="B112" s="3">
-        <v>1607005</v>
+        <v>1701012</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>189</v>
+        <v>261</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>189</v>
+        <v>261</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>190</v>
+        <v>262</v>
       </c>
       <c r="F112" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G112" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H112" s="3" t="s">
         <v>31</v>
@@ -6878,7 +7710,7 @@
         <v>0</v>
       </c>
       <c r="L112" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M112" s="3">
         <v>1001</v>
@@ -6887,10 +7719,10 @@
         <v>1</v>
       </c>
       <c r="O112" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P112" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q112" s="3"/>
       <c r="R112" s="3">
@@ -6899,25 +7731,25 @@
     </row>
     <row r="113" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="B113" s="3">
-        <v>1607006</v>
+        <v>1701013</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>191</v>
+        <v>263</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>191</v>
+        <v>263</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>192</v>
+        <v>264</v>
       </c>
       <c r="F113" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G113" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H113" s="3" t="s">
         <v>31</v>
@@ -6932,7 +7764,7 @@
         <v>0</v>
       </c>
       <c r="L113" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M113" s="3">
         <v>1001</v>
@@ -6941,10 +7773,10 @@
         <v>1</v>
       </c>
       <c r="O113" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P113" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q113" s="3"/>
       <c r="R113" s="3">
@@ -6953,25 +7785,25 @@
     </row>
     <row r="114" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="B114" s="3">
-        <v>1607007</v>
+        <v>1701014</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>193</v>
+        <v>265</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>193</v>
+        <v>265</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>194</v>
+        <v>266</v>
       </c>
       <c r="F114" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G114" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H114" s="3" t="s">
         <v>31</v>
@@ -6986,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="L114" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M114" s="3">
         <v>1001</v>
@@ -6995,10 +7827,10 @@
         <v>1</v>
       </c>
       <c r="O114" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P114" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q114" s="3"/>
       <c r="R114" s="3">
@@ -7007,25 +7839,25 @@
     </row>
     <row r="115" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="B115" s="3">
-        <v>1607008</v>
+        <v>1701015</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>195</v>
+        <v>267</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>195</v>
+        <v>267</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>196</v>
+        <v>268</v>
       </c>
       <c r="F115" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G115" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H115" s="3" t="s">
         <v>31</v>
@@ -7040,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="L115" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M115" s="3">
         <v>1001</v>
@@ -7049,10 +7881,10 @@
         <v>1</v>
       </c>
       <c r="O115" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P115" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q115" s="3"/>
       <c r="R115" s="3">
@@ -7061,25 +7893,25 @@
     </row>
     <row r="116" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="B116" s="3">
-        <v>1607009</v>
+        <v>1702001</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>197</v>
+        <v>269</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>197</v>
+        <v>269</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>198</v>
+        <v>270</v>
       </c>
       <c r="F116" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G116" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H116" s="3" t="s">
         <v>31</v>
@@ -7094,7 +7926,7 @@
         <v>0</v>
       </c>
       <c r="L116" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M116" s="3">
         <v>1001</v>
@@ -7103,10 +7935,10 @@
         <v>1</v>
       </c>
       <c r="O116" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P116" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q116" s="3"/>
       <c r="R116" s="3">
@@ -7115,25 +7947,25 @@
     </row>
     <row r="117" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="B117" s="3">
-        <v>1608001</v>
+        <v>1702002</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>199</v>
+        <v>271</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>199</v>
+        <v>271</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="F117" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G117" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H117" s="3" t="s">
         <v>31</v>
@@ -7148,7 +7980,7 @@
         <v>0</v>
       </c>
       <c r="L117" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M117" s="3">
         <v>1001</v>
@@ -7157,10 +7989,10 @@
         <v>1</v>
       </c>
       <c r="O117" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P117" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q117" s="3"/>
       <c r="R117" s="3">
@@ -7169,25 +8001,25 @@
     </row>
     <row r="118" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="B118" s="3">
-        <v>1608002</v>
+        <v>1702003</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>201</v>
+        <v>273</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>201</v>
+        <v>273</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>202</v>
+        <v>274</v>
       </c>
       <c r="F118" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G118" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H118" s="3" t="s">
         <v>31</v>
@@ -7202,7 +8034,7 @@
         <v>0</v>
       </c>
       <c r="L118" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M118" s="3">
         <v>1001</v>
@@ -7211,10 +8043,10 @@
         <v>1</v>
       </c>
       <c r="O118" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P118" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q118" s="3"/>
       <c r="R118" s="3">
@@ -7223,25 +8055,25 @@
     </row>
     <row r="119" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="B119" s="3">
-        <v>1608003</v>
+        <v>1702004</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>203</v>
+        <v>275</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>203</v>
+        <v>275</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>204</v>
+        <v>276</v>
       </c>
       <c r="F119" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G119" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H119" s="3" t="s">
         <v>31</v>
@@ -7256,7 +8088,7 @@
         <v>0</v>
       </c>
       <c r="L119" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M119" s="3">
         <v>1001</v>
@@ -7265,10 +8097,10 @@
         <v>1</v>
       </c>
       <c r="O119" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P119" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q119" s="3"/>
       <c r="R119" s="3">
@@ -7277,25 +8109,25 @@
     </row>
     <row r="120" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="B120" s="3">
-        <v>1608004</v>
+        <v>1702005</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>205</v>
+        <v>277</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>205</v>
+        <v>277</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>206</v>
+        <v>278</v>
       </c>
       <c r="F120" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G120" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H120" s="3" t="s">
         <v>31</v>
@@ -7310,7 +8142,7 @@
         <v>0</v>
       </c>
       <c r="L120" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M120" s="3">
         <v>1001</v>
@@ -7319,10 +8151,10 @@
         <v>1</v>
       </c>
       <c r="O120" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P120" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q120" s="3"/>
       <c r="R120" s="3">
@@ -7331,25 +8163,25 @@
     </row>
     <row r="121" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="B121" s="3">
-        <v>1608005</v>
+        <v>1702006</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>207</v>
+        <v>279</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>207</v>
+        <v>279</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>208</v>
+        <v>280</v>
       </c>
       <c r="F121" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G121" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H121" s="3" t="s">
         <v>31</v>
@@ -7364,7 +8196,7 @@
         <v>0</v>
       </c>
       <c r="L121" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M121" s="3">
         <v>1001</v>
@@ -7373,10 +8205,10 @@
         <v>1</v>
       </c>
       <c r="O121" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P121" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q121" s="3"/>
       <c r="R121" s="3">
@@ -7385,25 +8217,25 @@
     </row>
     <row r="122" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="B122" s="3">
-        <v>1608006</v>
+        <v>1702007</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>209</v>
+        <v>281</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>209</v>
+        <v>281</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>210</v>
+        <v>282</v>
       </c>
       <c r="F122" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G122" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H122" s="3" t="s">
         <v>31</v>
@@ -7418,7 +8250,7 @@
         <v>0</v>
       </c>
       <c r="L122" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M122" s="3">
         <v>1001</v>
@@ -7427,10 +8259,10 @@
         <v>1</v>
       </c>
       <c r="O122" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P122" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q122" s="3"/>
       <c r="R122" s="3">
@@ -7439,25 +8271,25 @@
     </row>
     <row r="123" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="B123" s="3">
-        <v>1608007</v>
+        <v>1702008</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>211</v>
+        <v>283</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>211</v>
+        <v>283</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>212</v>
+        <v>284</v>
       </c>
       <c r="F123" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G123" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H123" s="3" t="s">
         <v>31</v>
@@ -7472,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="L123" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M123" s="3">
         <v>1001</v>
@@ -7481,10 +8313,10 @@
         <v>1</v>
       </c>
       <c r="O123" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P123" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q123" s="3"/>
       <c r="R123" s="3">
@@ -7493,25 +8325,25 @@
     </row>
     <row r="124" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="B124" s="3">
-        <v>1608008</v>
+        <v>1702009</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>213</v>
+        <v>285</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>213</v>
+        <v>285</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>214</v>
+        <v>286</v>
       </c>
       <c r="F124" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G124" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H124" s="3" t="s">
         <v>31</v>
@@ -7526,7 +8358,7 @@
         <v>0</v>
       </c>
       <c r="L124" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M124" s="3">
         <v>1001</v>
@@ -7535,10 +8367,10 @@
         <v>1</v>
       </c>
       <c r="O124" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P124" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q124" s="3"/>
       <c r="R124" s="3">
@@ -7547,25 +8379,25 @@
     </row>
     <row r="125" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="B125" s="3">
-        <v>1608009</v>
+        <v>1702010</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>215</v>
+        <v>287</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>215</v>
+        <v>287</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>216</v>
+        <v>288</v>
       </c>
       <c r="F125" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G125" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H125" s="3" t="s">
         <v>31</v>
@@ -7580,7 +8412,7 @@
         <v>0</v>
       </c>
       <c r="L125" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M125" s="3">
         <v>1001</v>
@@ -7589,10 +8421,10 @@
         <v>1</v>
       </c>
       <c r="O125" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P125" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q125" s="3"/>
       <c r="R125" s="3">
@@ -7601,25 +8433,25 @@
     </row>
     <row r="126" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="B126" s="3">
-        <v>1608010</v>
+        <v>1702011</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>217</v>
+        <v>289</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>217</v>
+        <v>289</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>218</v>
+        <v>290</v>
       </c>
       <c r="F126" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G126" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H126" s="3" t="s">
         <v>31</v>
@@ -7634,7 +8466,7 @@
         <v>0</v>
       </c>
       <c r="L126" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M126" s="3">
         <v>1001</v>
@@ -7643,10 +8475,10 @@
         <v>1</v>
       </c>
       <c r="O126" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P126" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q126" s="3"/>
       <c r="R126" s="3">
@@ -7655,25 +8487,25 @@
     </row>
     <row r="127" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="B127" s="3">
-        <v>1608011</v>
+        <v>1702012</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>219</v>
+        <v>291</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>219</v>
+        <v>291</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>220</v>
+        <v>292</v>
       </c>
       <c r="F127" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G127" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H127" s="3" t="s">
         <v>31</v>
@@ -7688,7 +8520,7 @@
         <v>0</v>
       </c>
       <c r="L127" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M127" s="3">
         <v>1001</v>
@@ -7697,10 +8529,10 @@
         <v>1</v>
       </c>
       <c r="O127" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P127" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q127" s="3"/>
       <c r="R127" s="3">
@@ -7709,25 +8541,25 @@
     </row>
     <row r="128" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="B128" s="3">
-        <v>1608012</v>
+        <v>1702013</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>221</v>
+        <v>293</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>221</v>
+        <v>293</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>222</v>
+        <v>294</v>
       </c>
       <c r="F128" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G128" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H128" s="3" t="s">
         <v>31</v>
@@ -7742,7 +8574,7 @@
         <v>0</v>
       </c>
       <c r="L128" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M128" s="3">
         <v>1001</v>
@@ -7751,10 +8583,10 @@
         <v>1</v>
       </c>
       <c r="O128" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P128" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q128" s="3"/>
       <c r="R128" s="3">
@@ -7763,25 +8595,25 @@
     </row>
     <row r="129" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="B129" s="3">
-        <v>1608013</v>
+        <v>1702014</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>223</v>
+        <v>295</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>223</v>
+        <v>295</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>224</v>
+        <v>296</v>
       </c>
       <c r="F129" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G129" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H129" s="3" t="s">
         <v>31</v>
@@ -7796,7 +8628,7 @@
         <v>0</v>
       </c>
       <c r="L129" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M129" s="3">
         <v>1001</v>
@@ -7805,10 +8637,10 @@
         <v>1</v>
       </c>
       <c r="O129" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P129" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q129" s="3"/>
       <c r="R129" s="3">
@@ -7817,25 +8649,25 @@
     </row>
     <row r="130" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="B130" s="3">
-        <v>1608014</v>
+        <v>1702015</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>225</v>
+        <v>297</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>225</v>
+        <v>297</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>226</v>
+        <v>298</v>
       </c>
       <c r="F130" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G130" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H130" s="3" t="s">
         <v>31</v>
@@ -7850,7 +8682,7 @@
         <v>0</v>
       </c>
       <c r="L130" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M130" s="3">
         <v>1001</v>
@@ -7859,10 +8691,10 @@
         <v>1</v>
       </c>
       <c r="O130" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P130" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q130" s="3"/>
       <c r="R130" s="3">
@@ -7871,25 +8703,25 @@
     </row>
     <row r="131" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="B131" s="3">
-        <v>1608015</v>
+        <v>1702016</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>227</v>
+        <v>299</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>227</v>
+        <v>299</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>228</v>
+        <v>300</v>
       </c>
       <c r="F131" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G131" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H131" s="3" t="s">
         <v>31</v>
@@ -7904,7 +8736,7 @@
         <v>0</v>
       </c>
       <c r="L131" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M131" s="3">
         <v>1001</v>
@@ -7913,10 +8745,10 @@
         <v>1</v>
       </c>
       <c r="O131" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P131" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q131" s="3"/>
       <c r="R131" s="3">
@@ -7925,25 +8757,25 @@
     </row>
     <row r="132" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="B132" s="3">
-        <v>1609001</v>
+        <v>1702017</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>229</v>
+        <v>301</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>229</v>
+        <v>301</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>230</v>
+        <v>302</v>
       </c>
       <c r="F132" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G132" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H132" s="3" t="s">
         <v>31</v>
@@ -7958,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="L132" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M132" s="3">
         <v>1001</v>
@@ -7967,10 +8799,10 @@
         <v>1</v>
       </c>
       <c r="O132" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P132" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q132" s="3"/>
       <c r="R132" s="3">
@@ -7979,25 +8811,25 @@
     </row>
     <row r="133" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="B133" s="3">
-        <v>1609002</v>
+        <v>1702018</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>231</v>
+        <v>303</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>231</v>
+        <v>303</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>232</v>
+        <v>304</v>
       </c>
       <c r="F133" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G133" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H133" s="3" t="s">
         <v>31</v>
@@ -8012,7 +8844,7 @@
         <v>0</v>
       </c>
       <c r="L133" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M133" s="3">
         <v>1001</v>
@@ -8021,10 +8853,10 @@
         <v>1</v>
       </c>
       <c r="O133" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P133" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q133" s="3"/>
       <c r="R133" s="3">
@@ -8033,25 +8865,25 @@
     </row>
     <row r="134" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="B134" s="3">
-        <v>1609003</v>
+        <v>1702019</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>233</v>
+        <v>305</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>233</v>
+        <v>305</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>234</v>
+        <v>306</v>
       </c>
       <c r="F134" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G134" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H134" s="3" t="s">
         <v>31</v>
@@ -8066,7 +8898,7 @@
         <v>0</v>
       </c>
       <c r="L134" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M134" s="3">
         <v>1001</v>
@@ -8075,10 +8907,10 @@
         <v>1</v>
       </c>
       <c r="O134" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P134" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q134" s="3"/>
       <c r="R134" s="3">
@@ -8087,25 +8919,25 @@
     </row>
     <row r="135" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="B135" s="3">
-        <v>1605001</v>
+        <v>1702020</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>236</v>
+        <v>308</v>
       </c>
       <c r="F135" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G135" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H135" s="3" t="s">
         <v>31</v>
@@ -8120,7 +8952,7 @@
         <v>0</v>
       </c>
       <c r="L135" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M135" s="3">
         <v>1001</v>
@@ -8129,39 +8961,37 @@
         <v>1</v>
       </c>
       <c r="O135" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P135" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="Q135" s="3">
-        <v>1001</v>
-      </c>
+      <c r="Q135" s="3"/>
       <c r="R135" s="3">
         <v>1001</v>
       </c>
     </row>
     <row r="136" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="B136" s="3">
-        <v>1605002</v>
+        <v>1702021</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>237</v>
+        <v>309</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>237</v>
+        <v>309</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>238</v>
+        <v>310</v>
       </c>
       <c r="F136" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G136" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H136" s="3" t="s">
         <v>31</v>
@@ -8176,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="L136" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M136" s="3">
         <v>1001</v>
@@ -8185,1959 +9015,13 @@
         <v>1</v>
       </c>
       <c r="O136" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P136" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="Q136" s="3">
-        <v>1001</v>
-      </c>
+      <c r="Q136" s="3"/>
       <c r="R136" s="3">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A137" s="3">
-        <v>98</v>
-      </c>
-      <c r="B137" s="3">
-        <v>1701001</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="F137" s="3">
-        <v>17</v>
-      </c>
-      <c r="G137" s="3">
-        <v>3</v>
-      </c>
-      <c r="H137" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I137" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J137" s="3">
-        <v>999</v>
-      </c>
-      <c r="K137" s="3">
-        <v>0</v>
-      </c>
-      <c r="L137" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M137" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N137" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O137" s="3">
-        <v>2</v>
-      </c>
-      <c r="P137" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q137" s="3"/>
-      <c r="R137" s="3">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="138" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A138" s="3">
-        <v>99</v>
-      </c>
-      <c r="B138" s="3">
-        <v>1701002</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="F138" s="3">
-        <v>17</v>
-      </c>
-      <c r="G138" s="3">
-        <v>2</v>
-      </c>
-      <c r="H138" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I138" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J138" s="3">
-        <v>999</v>
-      </c>
-      <c r="K138" s="3">
-        <v>0</v>
-      </c>
-      <c r="L138" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M138" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N138" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O138" s="3">
-        <v>2</v>
-      </c>
-      <c r="P138" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q138" s="3"/>
-      <c r="R138" s="3">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="139" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A139" s="3">
-        <v>100</v>
-      </c>
-      <c r="B139" s="3">
-        <v>1701003</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="F139" s="3">
-        <v>17</v>
-      </c>
-      <c r="G139" s="3">
-        <v>3</v>
-      </c>
-      <c r="H139" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I139" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J139" s="3">
-        <v>999</v>
-      </c>
-      <c r="K139" s="3">
-        <v>0</v>
-      </c>
-      <c r="L139" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M139" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N139" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O139" s="3">
-        <v>2</v>
-      </c>
-      <c r="P139" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q139" s="3"/>
-      <c r="R139" s="3">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="140" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A140" s="3">
-        <v>101</v>
-      </c>
-      <c r="B140" s="3">
-        <v>1701004</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="F140" s="3">
-        <v>17</v>
-      </c>
-      <c r="G140" s="3">
-        <v>4</v>
-      </c>
-      <c r="H140" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I140" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J140" s="3">
-        <v>999</v>
-      </c>
-      <c r="K140" s="3">
-        <v>0</v>
-      </c>
-      <c r="L140" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M140" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N140" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O140" s="3">
-        <v>2</v>
-      </c>
-      <c r="P140" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q140" s="3"/>
-      <c r="R140" s="3">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A141" s="3">
-        <v>102</v>
-      </c>
-      <c r="B141" s="3">
-        <v>1701005</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="F141" s="3">
-        <v>17</v>
-      </c>
-      <c r="G141" s="3">
-        <v>4</v>
-      </c>
-      <c r="H141" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I141" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J141" s="3">
-        <v>999</v>
-      </c>
-      <c r="K141" s="3">
-        <v>0</v>
-      </c>
-      <c r="L141" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M141" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N141" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O141" s="3">
-        <v>2</v>
-      </c>
-      <c r="P141" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q141" s="3"/>
-      <c r="R141" s="3">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="142" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A142" s="3">
-        <v>103</v>
-      </c>
-      <c r="B142" s="3">
-        <v>1701006</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F142" s="3">
-        <v>17</v>
-      </c>
-      <c r="G142" s="3">
-        <v>3</v>
-      </c>
-      <c r="H142" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I142" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J142" s="3">
-        <v>999</v>
-      </c>
-      <c r="K142" s="3">
-        <v>0</v>
-      </c>
-      <c r="L142" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M142" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N142" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O142" s="3">
-        <v>2</v>
-      </c>
-      <c r="P142" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q142" s="3"/>
-      <c r="R142" s="3">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A143" s="3">
-        <v>104</v>
-      </c>
-      <c r="B143" s="3">
-        <v>1701007</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="F143" s="3">
-        <v>17</v>
-      </c>
-      <c r="G143" s="3">
-        <v>4</v>
-      </c>
-      <c r="H143" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I143" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J143" s="3">
-        <v>999</v>
-      </c>
-      <c r="K143" s="3">
-        <v>0</v>
-      </c>
-      <c r="L143" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M143" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N143" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O143" s="3">
-        <v>2</v>
-      </c>
-      <c r="P143" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q143" s="3"/>
-      <c r="R143" s="3">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A144" s="3">
-        <v>105</v>
-      </c>
-      <c r="B144" s="3">
-        <v>1701008</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F144" s="3">
-        <v>17</v>
-      </c>
-      <c r="G144" s="3">
-        <v>2</v>
-      </c>
-      <c r="H144" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I144" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J144" s="3">
-        <v>999</v>
-      </c>
-      <c r="K144" s="3">
-        <v>0</v>
-      </c>
-      <c r="L144" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M144" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N144" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O144" s="3">
-        <v>2</v>
-      </c>
-      <c r="P144" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q144" s="3"/>
-      <c r="R144" s="3">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="145" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A145" s="3">
-        <v>106</v>
-      </c>
-      <c r="B145" s="3">
-        <v>1701009</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="F145" s="3">
-        <v>17</v>
-      </c>
-      <c r="G145" s="3">
-        <v>3</v>
-      </c>
-      <c r="H145" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I145" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J145" s="3">
-        <v>999</v>
-      </c>
-      <c r="K145" s="3">
-        <v>0</v>
-      </c>
-      <c r="L145" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M145" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N145" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O145" s="3">
-        <v>2</v>
-      </c>
-      <c r="P145" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q145" s="3"/>
-      <c r="R145" s="3">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="146" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A146" s="3">
-        <v>107</v>
-      </c>
-      <c r="B146" s="3">
-        <v>1701010</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="F146" s="3">
-        <v>17</v>
-      </c>
-      <c r="G146" s="3">
-        <v>4</v>
-      </c>
-      <c r="H146" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I146" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J146" s="3">
-        <v>999</v>
-      </c>
-      <c r="K146" s="3">
-        <v>0</v>
-      </c>
-      <c r="L146" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M146" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N146" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O146" s="3">
-        <v>2</v>
-      </c>
-      <c r="P146" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q146" s="3"/>
-      <c r="R146" s="3">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="147" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A147" s="3">
-        <v>108</v>
-      </c>
-      <c r="B147" s="3">
-        <v>1701011</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E147" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="F147" s="3">
-        <v>17</v>
-      </c>
-      <c r="G147" s="3">
-        <v>3</v>
-      </c>
-      <c r="H147" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I147" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J147" s="3">
-        <v>999</v>
-      </c>
-      <c r="K147" s="3">
-        <v>0</v>
-      </c>
-      <c r="L147" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M147" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N147" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O147" s="3">
-        <v>2</v>
-      </c>
-      <c r="P147" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q147" s="3"/>
-      <c r="R147" s="3">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="148" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A148" s="3">
-        <v>109</v>
-      </c>
-      <c r="B148" s="3">
-        <v>1701012</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="F148" s="3">
-        <v>17</v>
-      </c>
-      <c r="G148" s="3">
-        <v>2</v>
-      </c>
-      <c r="H148" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I148" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J148" s="3">
-        <v>999</v>
-      </c>
-      <c r="K148" s="3">
-        <v>0</v>
-      </c>
-      <c r="L148" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M148" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N148" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O148" s="3">
-        <v>2</v>
-      </c>
-      <c r="P148" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q148" s="3"/>
-      <c r="R148" s="3">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="149" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A149" s="3">
-        <v>110</v>
-      </c>
-      <c r="B149" s="3">
-        <v>1701013</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E149" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F149" s="3">
-        <v>17</v>
-      </c>
-      <c r="G149" s="3">
-        <v>2</v>
-      </c>
-      <c r="H149" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I149" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J149" s="3">
-        <v>999</v>
-      </c>
-      <c r="K149" s="3">
-        <v>0</v>
-      </c>
-      <c r="L149" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M149" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N149" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O149" s="3">
-        <v>2</v>
-      </c>
-      <c r="P149" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q149" s="3"/>
-      <c r="R149" s="3">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="150" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A150" s="3">
-        <v>111</v>
-      </c>
-      <c r="B150" s="3">
-        <v>1701014</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E150" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="F150" s="3">
-        <v>17</v>
-      </c>
-      <c r="G150" s="3">
-        <v>3</v>
-      </c>
-      <c r="H150" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I150" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J150" s="3">
-        <v>999</v>
-      </c>
-      <c r="K150" s="3">
-        <v>0</v>
-      </c>
-      <c r="L150" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M150" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N150" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O150" s="3">
-        <v>2</v>
-      </c>
-      <c r="P150" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q150" s="3"/>
-      <c r="R150" s="3">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="151" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A151" s="3">
-        <v>112</v>
-      </c>
-      <c r="B151" s="3">
-        <v>1701015</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="F151" s="3">
-        <v>17</v>
-      </c>
-      <c r="G151" s="3">
-        <v>2</v>
-      </c>
-      <c r="H151" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I151" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J151" s="3">
-        <v>999</v>
-      </c>
-      <c r="K151" s="3">
-        <v>0</v>
-      </c>
-      <c r="L151" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M151" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N151" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O151" s="3">
-        <v>2</v>
-      </c>
-      <c r="P151" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q151" s="3"/>
-      <c r="R151" s="3">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="152" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A152" s="3">
-        <v>113</v>
-      </c>
-      <c r="B152" s="3">
-        <v>1702001</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E152" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="F152" s="3">
-        <v>17</v>
-      </c>
-      <c r="G152" s="3">
-        <v>4</v>
-      </c>
-      <c r="H152" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I152" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J152" s="3">
-        <v>999</v>
-      </c>
-      <c r="K152" s="3">
-        <v>0</v>
-      </c>
-      <c r="L152" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M152" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N152" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O152" s="3">
-        <v>3</v>
-      </c>
-      <c r="P152" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q152" s="3"/>
-      <c r="R152" s="3">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="153" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A153" s="3">
-        <v>114</v>
-      </c>
-      <c r="B153" s="3">
-        <v>1702002</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="E153" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F153" s="3">
-        <v>17</v>
-      </c>
-      <c r="G153" s="3">
-        <v>3</v>
-      </c>
-      <c r="H153" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I153" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J153" s="3">
-        <v>999</v>
-      </c>
-      <c r="K153" s="3">
-        <v>0</v>
-      </c>
-      <c r="L153" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M153" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N153" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O153" s="3">
-        <v>3</v>
-      </c>
-      <c r="P153" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q153" s="3"/>
-      <c r="R153" s="3">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="154" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A154" s="3">
-        <v>115</v>
-      </c>
-      <c r="B154" s="3">
-        <v>1702003</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="E154" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="F154" s="3">
-        <v>17</v>
-      </c>
-      <c r="G154" s="3">
-        <v>3</v>
-      </c>
-      <c r="H154" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I154" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J154" s="3">
-        <v>999</v>
-      </c>
-      <c r="K154" s="3">
-        <v>0</v>
-      </c>
-      <c r="L154" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M154" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N154" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O154" s="3">
-        <v>3</v>
-      </c>
-      <c r="P154" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q154" s="3"/>
-      <c r="R154" s="3">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="155" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A155" s="3">
-        <v>116</v>
-      </c>
-      <c r="B155" s="3">
-        <v>1702004</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="F155" s="3">
-        <v>17</v>
-      </c>
-      <c r="G155" s="3">
-        <v>2</v>
-      </c>
-      <c r="H155" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I155" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J155" s="3">
-        <v>999</v>
-      </c>
-      <c r="K155" s="3">
-        <v>0</v>
-      </c>
-      <c r="L155" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M155" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N155" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O155" s="3">
-        <v>3</v>
-      </c>
-      <c r="P155" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q155" s="3"/>
-      <c r="R155" s="3">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="156" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A156" s="3">
-        <v>117</v>
-      </c>
-      <c r="B156" s="3">
-        <v>1702005</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="F156" s="3">
-        <v>17</v>
-      </c>
-      <c r="G156" s="3">
-        <v>3</v>
-      </c>
-      <c r="H156" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I156" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J156" s="3">
-        <v>999</v>
-      </c>
-      <c r="K156" s="3">
-        <v>0</v>
-      </c>
-      <c r="L156" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M156" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N156" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O156" s="3">
-        <v>3</v>
-      </c>
-      <c r="P156" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q156" s="3"/>
-      <c r="R156" s="3">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="157" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A157" s="3">
-        <v>118</v>
-      </c>
-      <c r="B157" s="3">
-        <v>1702006</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="E157" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="F157" s="3">
-        <v>17</v>
-      </c>
-      <c r="G157" s="3">
-        <v>4</v>
-      </c>
-      <c r="H157" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I157" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J157" s="3">
-        <v>999</v>
-      </c>
-      <c r="K157" s="3">
-        <v>0</v>
-      </c>
-      <c r="L157" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M157" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N157" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O157" s="3">
-        <v>3</v>
-      </c>
-      <c r="P157" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q157" s="3"/>
-      <c r="R157" s="3">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="158" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A158" s="3">
-        <v>119</v>
-      </c>
-      <c r="B158" s="3">
-        <v>1702007</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E158" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="F158" s="3">
-        <v>17</v>
-      </c>
-      <c r="G158" s="3">
-        <v>3</v>
-      </c>
-      <c r="H158" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I158" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J158" s="3">
-        <v>999</v>
-      </c>
-      <c r="K158" s="3">
-        <v>0</v>
-      </c>
-      <c r="L158" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M158" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N158" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O158" s="3">
-        <v>3</v>
-      </c>
-      <c r="P158" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q158" s="3"/>
-      <c r="R158" s="3">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="159" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A159" s="3">
-        <v>120</v>
-      </c>
-      <c r="B159" s="3">
-        <v>1702008</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="F159" s="3">
-        <v>17</v>
-      </c>
-      <c r="G159" s="3">
-        <v>4</v>
-      </c>
-      <c r="H159" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I159" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J159" s="3">
-        <v>999</v>
-      </c>
-      <c r="K159" s="3">
-        <v>0</v>
-      </c>
-      <c r="L159" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M159" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N159" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O159" s="3">
-        <v>3</v>
-      </c>
-      <c r="P159" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q159" s="3"/>
-      <c r="R159" s="3">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="160" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A160" s="3">
-        <v>121</v>
-      </c>
-      <c r="B160" s="3">
-        <v>1702009</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="F160" s="3">
-        <v>17</v>
-      </c>
-      <c r="G160" s="3">
-        <v>4</v>
-      </c>
-      <c r="H160" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I160" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J160" s="3">
-        <v>999</v>
-      </c>
-      <c r="K160" s="3">
-        <v>0</v>
-      </c>
-      <c r="L160" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M160" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N160" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O160" s="3">
-        <v>3</v>
-      </c>
-      <c r="P160" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q160" s="3"/>
-      <c r="R160" s="3">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="161" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A161" s="3">
-        <v>122</v>
-      </c>
-      <c r="B161" s="3">
-        <v>1702010</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="F161" s="3">
-        <v>17</v>
-      </c>
-      <c r="G161" s="3">
-        <v>4</v>
-      </c>
-      <c r="H161" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I161" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J161" s="3">
-        <v>999</v>
-      </c>
-      <c r="K161" s="3">
-        <v>0</v>
-      </c>
-      <c r="L161" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M161" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N161" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O161" s="3">
-        <v>3</v>
-      </c>
-      <c r="P161" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q161" s="3"/>
-      <c r="R161" s="3">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="162" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A162" s="3">
-        <v>123</v>
-      </c>
-      <c r="B162" s="3">
-        <v>1702011</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E162" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="F162" s="3">
-        <v>17</v>
-      </c>
-      <c r="G162" s="3">
-        <v>4</v>
-      </c>
-      <c r="H162" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I162" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J162" s="3">
-        <v>999</v>
-      </c>
-      <c r="K162" s="3">
-        <v>0</v>
-      </c>
-      <c r="L162" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M162" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N162" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O162" s="3">
-        <v>3</v>
-      </c>
-      <c r="P162" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q162" s="3"/>
-      <c r="R162" s="3">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="163" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A163" s="3">
-        <v>124</v>
-      </c>
-      <c r="B163" s="3">
-        <v>1702012</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F163" s="3">
-        <v>17</v>
-      </c>
-      <c r="G163" s="3">
-        <v>4</v>
-      </c>
-      <c r="H163" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I163" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J163" s="3">
-        <v>999</v>
-      </c>
-      <c r="K163" s="3">
-        <v>0</v>
-      </c>
-      <c r="L163" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M163" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N163" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O163" s="3">
-        <v>3</v>
-      </c>
-      <c r="P163" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q163" s="3"/>
-      <c r="R163" s="3">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="164" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A164" s="3">
-        <v>125</v>
-      </c>
-      <c r="B164" s="3">
-        <v>1702013</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="E164" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="F164" s="3">
-        <v>17</v>
-      </c>
-      <c r="G164" s="3">
-        <v>2</v>
-      </c>
-      <c r="H164" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I164" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J164" s="3">
-        <v>999</v>
-      </c>
-      <c r="K164" s="3">
-        <v>0</v>
-      </c>
-      <c r="L164" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M164" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N164" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O164" s="3">
-        <v>3</v>
-      </c>
-      <c r="P164" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q164" s="3"/>
-      <c r="R164" s="3">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="165" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A165" s="3">
-        <v>126</v>
-      </c>
-      <c r="B165" s="3">
-        <v>1702014</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="F165" s="3">
-        <v>17</v>
-      </c>
-      <c r="G165" s="3">
-        <v>3</v>
-      </c>
-      <c r="H165" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I165" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J165" s="3">
-        <v>999</v>
-      </c>
-      <c r="K165" s="3">
-        <v>0</v>
-      </c>
-      <c r="L165" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M165" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N165" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O165" s="3">
-        <v>3</v>
-      </c>
-      <c r="P165" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q165" s="3"/>
-      <c r="R165" s="3">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="166" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A166" s="3">
-        <v>127</v>
-      </c>
-      <c r="B166" s="3">
-        <v>1702015</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="F166" s="3">
-        <v>17</v>
-      </c>
-      <c r="G166" s="3">
-        <v>2</v>
-      </c>
-      <c r="H166" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I166" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J166" s="3">
-        <v>999</v>
-      </c>
-      <c r="K166" s="3">
-        <v>0</v>
-      </c>
-      <c r="L166" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M166" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N166" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O166" s="3">
-        <v>3</v>
-      </c>
-      <c r="P166" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q166" s="3"/>
-      <c r="R166" s="3">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="167" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A167" s="3">
-        <v>128</v>
-      </c>
-      <c r="B167" s="3">
-        <v>1702016</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="F167" s="3">
-        <v>17</v>
-      </c>
-      <c r="G167" s="3">
-        <v>4</v>
-      </c>
-      <c r="H167" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I167" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J167" s="3">
-        <v>999</v>
-      </c>
-      <c r="K167" s="3">
-        <v>0</v>
-      </c>
-      <c r="L167" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M167" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N167" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O167" s="3">
-        <v>3</v>
-      </c>
-      <c r="P167" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q167" s="3"/>
-      <c r="R167" s="3">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="168" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A168" s="3">
-        <v>129</v>
-      </c>
-      <c r="B168" s="3">
-        <v>1702017</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E168" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="F168" s="3">
-        <v>17</v>
-      </c>
-      <c r="G168" s="3">
-        <v>3</v>
-      </c>
-      <c r="H168" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I168" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J168" s="3">
-        <v>999</v>
-      </c>
-      <c r="K168" s="3">
-        <v>0</v>
-      </c>
-      <c r="L168" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M168" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N168" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O168" s="3">
-        <v>3</v>
-      </c>
-      <c r="P168" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q168" s="3"/>
-      <c r="R168" s="3">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="169" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A169" s="3">
-        <v>130</v>
-      </c>
-      <c r="B169" s="3">
-        <v>1702018</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="E169" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="F169" s="3">
-        <v>17</v>
-      </c>
-      <c r="G169" s="3">
-        <v>2</v>
-      </c>
-      <c r="H169" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I169" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J169" s="3">
-        <v>999</v>
-      </c>
-      <c r="K169" s="3">
-        <v>0</v>
-      </c>
-      <c r="L169" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M169" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N169" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O169" s="3">
-        <v>3</v>
-      </c>
-      <c r="P169" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q169" s="3"/>
-      <c r="R169" s="3">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="170" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A170" s="3">
-        <v>131</v>
-      </c>
-      <c r="B170" s="3">
-        <v>1702019</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="F170" s="3">
-        <v>17</v>
-      </c>
-      <c r="G170" s="3">
-        <v>2</v>
-      </c>
-      <c r="H170" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I170" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J170" s="3">
-        <v>999</v>
-      </c>
-      <c r="K170" s="3">
-        <v>0</v>
-      </c>
-      <c r="L170" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M170" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N170" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O170" s="3">
-        <v>3</v>
-      </c>
-      <c r="P170" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q170" s="3"/>
-      <c r="R170" s="3">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="171" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A171" s="3">
-        <v>132</v>
-      </c>
-      <c r="B171" s="3">
-        <v>1702020</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E171" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="F171" s="3">
-        <v>17</v>
-      </c>
-      <c r="G171" s="3">
-        <v>3</v>
-      </c>
-      <c r="H171" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I171" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J171" s="3">
-        <v>999</v>
-      </c>
-      <c r="K171" s="3">
-        <v>0</v>
-      </c>
-      <c r="L171" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M171" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N171" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O171" s="3">
-        <v>3</v>
-      </c>
-      <c r="P171" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q171" s="3"/>
-      <c r="R171" s="3">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="172" spans="1:18" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A172" s="3">
-        <v>133</v>
-      </c>
-      <c r="B172" s="3">
-        <v>1702021</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="F172" s="3">
-        <v>17</v>
-      </c>
-      <c r="G172" s="3">
-        <v>2</v>
-      </c>
-      <c r="H172" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I172" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J172" s="3">
-        <v>999</v>
-      </c>
-      <c r="K172" s="3">
-        <v>0</v>
-      </c>
-      <c r="L172" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="M172" s="3">
-        <v>1001</v>
-      </c>
-      <c r="N172" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O172" s="3">
-        <v>3</v>
-      </c>
-      <c r="P172" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q172" s="3"/>
-      <c r="R172" s="3">
         <v>1001</v>
       </c>
     </row>

--- a/Excel/镇魂街/新配置表/item.道具.xlsx
+++ b/Excel/镇魂街/新配置表/item.道具.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="329">
   <si>
     <t>sheet名</t>
   </si>
@@ -1048,6 +1048,10 @@
   </si>
   <si>
     <t>int:e&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>常驻内存</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1558,10 +1562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1572,10 +1576,11 @@
     <col min="4" max="4" width="29.375" customWidth="1"/>
     <col min="5" max="5" width="29.5" customWidth="1"/>
     <col min="6" max="6" width="79.625" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1595,10 +1600,13 @@
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -1618,8 +1626,11 @@
       <c r="G2" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1639,8 +1650,11 @@
       <c r="G3" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1648,8 +1662,9 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1657,8 +1672,9 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
     </row>
   </sheetData>
@@ -1672,7 +1688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
